--- a/Documents/RA/ExternalDocuments/PianoDiProgetto/consuntivi/consuntivo.xlsx
+++ b/Documents/RA/ExternalDocuments/PianoDiProgetto/consuntivi/consuntivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Documents-RQ\Documents\RQ\ExternalDocuments\PianoDiProgetto\consuntivi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduard\Desktop\SWE_project\Documents\Documents\RA\ExternalDocuments\PianoDiProgetto\consuntivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fase A" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,7 @@
     <sheet name="Fase V" sheetId="7" r:id="rId7"/>
     <sheet name="Finale" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€ &quot;#,##0.00"/>
   </numFmts>
@@ -706,7 +705,7 @@
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -819,6 +818,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +959,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -1071,6 +1082,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A5A-49FA-AC77-677C30D52AEC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1165,6 +1181,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A5A-49FA-AC77-677C30D52AEC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1259,6 +1280,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A5A-49FA-AC77-677C30D52AEC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1353,6 +1379,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A5A-49FA-AC77-677C30D52AEC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1447,6 +1478,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A5A-49FA-AC77-677C30D52AEC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1541,6 +1577,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5A5A-49FA-AC77-677C30D52AEC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1660,12 +1701,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.34384891163052567"/>
           <c:y val="0.84615531450177117"/>
-          <c:w val="0.65142005514294943"/>
-          <c:h val="0.92307839142484815"/>
+          <c:w val="0.30757114351242376"/>
+          <c:h val="7.6923076923076983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1734,7 +1773,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -1795,6 +1834,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0A44-4E67-81BB-CA8887B3D2B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1818,6 +1862,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0A44-4E67-81BB-CA8887B3D2B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1841,6 +1890,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0A44-4E67-81BB-CA8887B3D2B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1864,6 +1918,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0A44-4E67-81BB-CA8887B3D2B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1887,6 +1946,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0A44-4E67-81BB-CA8887B3D2B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1910,6 +1974,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0A44-4E67-81BB-CA8887B3D2B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1945,6 +2014,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0A44-4E67-81BB-CA8887B3D2B9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1979,6 +2053,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0A44-4E67-81BB-CA8887B3D2B9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2013,6 +2092,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0A44-4E67-81BB-CA8887B3D2B9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2047,6 +2131,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0A44-4E67-81BB-CA8887B3D2B9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -2081,6 +2170,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0A44-4E67-81BB-CA8887B3D2B9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -2115,6 +2209,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-0A44-4E67-81BB-CA8887B3D2B9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -2207,6 +2306,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0A44-4E67-81BB-CA8887B3D2B9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2306,7 +2410,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -2429,6 +2533,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF23-488A-9DD7-CF4A128A4B15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2523,6 +2632,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF23-488A-9DD7-CF4A128A4B15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2617,6 +2731,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF23-488A-9DD7-CF4A128A4B15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2711,6 +2830,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FF23-488A-9DD7-CF4A128A4B15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2805,6 +2929,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FF23-488A-9DD7-CF4A128A4B15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2899,6 +3028,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FF23-488A-9DD7-CF4A128A4B15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3090,7 +3224,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -3151,6 +3285,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4424-4A54-94A5-1D17A5D3A8B8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3174,6 +3313,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4424-4A54-94A5-1D17A5D3A8B8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3197,6 +3341,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4424-4A54-94A5-1D17A5D3A8B8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3220,6 +3369,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4424-4A54-94A5-1D17A5D3A8B8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3243,6 +3397,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4424-4A54-94A5-1D17A5D3A8B8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3266,6 +3425,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4424-4A54-94A5-1D17A5D3A8B8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -3301,6 +3465,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4424-4A54-94A5-1D17A5D3A8B8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3335,6 +3504,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4424-4A54-94A5-1D17A5D3A8B8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -3369,6 +3543,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4424-4A54-94A5-1D17A5D3A8B8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -3403,6 +3582,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4424-4A54-94A5-1D17A5D3A8B8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -3437,6 +3621,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4424-4A54-94A5-1D17A5D3A8B8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -3471,6 +3660,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4424-4A54-94A5-1D17A5D3A8B8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -3563,6 +3757,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4424-4A54-94A5-1D17A5D3A8B8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3660,7 +3859,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -3732,6 +3931,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B8F5-4B74-9221-990DC78BCFB6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3755,6 +3959,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B8F5-4B74-9221-990DC78BCFB6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3778,6 +3987,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B8F5-4B74-9221-990DC78BCFB6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3801,6 +4015,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B8F5-4B74-9221-990DC78BCFB6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3824,6 +4043,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B8F5-4B74-9221-990DC78BCFB6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3847,6 +4071,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B8F5-4B74-9221-990DC78BCFB6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -3882,6 +4111,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B8F5-4B74-9221-990DC78BCFB6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3916,6 +4150,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B8F5-4B74-9221-990DC78BCFB6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -3950,6 +4189,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B8F5-4B74-9221-990DC78BCFB6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -3984,6 +4228,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B8F5-4B74-9221-990DC78BCFB6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -4018,6 +4267,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B8F5-4B74-9221-990DC78BCFB6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -4055,6 +4309,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-B8F5-4B74-9221-990DC78BCFB6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4149,6 +4406,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-B8F5-4B74-9221-990DC78BCFB6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4246,7 +4508,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -4369,6 +4631,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4C0-4707-9505-A57412A497C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4463,6 +4730,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4C0-4707-9505-A57412A497C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4557,6 +4829,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E4C0-4707-9505-A57412A497C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4651,6 +4928,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E4C0-4707-9505-A57412A497C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4745,6 +5027,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E4C0-4707-9505-A57412A497C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4839,6 +5126,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E4C0-4707-9505-A57412A497C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4958,12 +5250,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.34384891163052567"/>
           <c:y val="0.84615531450177117"/>
-          <c:w val="0.65142005514294943"/>
-          <c:h val="0.92307839142484815"/>
+          <c:w val="0.30757114351242376"/>
+          <c:h val="7.6923076923076983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5032,7 +5322,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -5093,6 +5383,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7BDA-477B-80C7-D16F1763E1AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5116,6 +5411,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7BDA-477B-80C7-D16F1763E1AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5139,6 +5439,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7BDA-477B-80C7-D16F1763E1AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5162,6 +5467,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7BDA-477B-80C7-D16F1763E1AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5185,6 +5495,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7BDA-477B-80C7-D16F1763E1AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5208,6 +5523,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7BDA-477B-80C7-D16F1763E1AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -5243,6 +5563,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7BDA-477B-80C7-D16F1763E1AD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -5277,6 +5602,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7BDA-477B-80C7-D16F1763E1AD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -5311,6 +5641,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7BDA-477B-80C7-D16F1763E1AD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -5345,6 +5680,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7BDA-477B-80C7-D16F1763E1AD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -5379,6 +5719,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-7BDA-477B-80C7-D16F1763E1AD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -5413,6 +5758,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-7BDA-477B-80C7-D16F1763E1AD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -5505,6 +5855,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-7BDA-477B-80C7-D16F1763E1AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5530,12 +5885,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20436549597966919"/>
           <c:y val="0.78299120234604103"/>
-          <c:w val="0.75992209307169944"/>
-          <c:h val="0.91202346041055715"/>
+          <c:w val="0.5555565970920302"/>
+          <c:h val="0.12903225806451613"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5604,7 +5957,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -5676,6 +6029,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F1F3-4C0E-BAF7-4FED047631AB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5699,6 +6057,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F1F3-4C0E-BAF7-4FED047631AB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5722,6 +6085,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F1F3-4C0E-BAF7-4FED047631AB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5745,6 +6113,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F1F3-4C0E-BAF7-4FED047631AB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5768,6 +6141,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F1F3-4C0E-BAF7-4FED047631AB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5791,6 +6169,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F1F3-4C0E-BAF7-4FED047631AB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -5826,6 +6209,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F1F3-4C0E-BAF7-4FED047631AB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -5860,6 +6248,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F1F3-4C0E-BAF7-4FED047631AB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -5894,6 +6287,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F1F3-4C0E-BAF7-4FED047631AB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -5928,6 +6326,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F1F3-4C0E-BAF7-4FED047631AB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -5962,6 +6365,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-F1F3-4C0E-BAF7-4FED047631AB}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -5997,6 +6405,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-F1F3-4C0E-BAF7-4FED047631AB}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -6090,6 +6501,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F1F3-4C0E-BAF7-4FED047631AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6189,7 +6605,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -6261,6 +6677,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7A30-4CE0-8329-57A3C6844476}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6284,6 +6705,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7A30-4CE0-8329-57A3C6844476}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6307,6 +6733,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7A30-4CE0-8329-57A3C6844476}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6330,6 +6761,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7A30-4CE0-8329-57A3C6844476}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6353,6 +6789,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7A30-4CE0-8329-57A3C6844476}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6376,6 +6817,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7A30-4CE0-8329-57A3C6844476}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -6411,6 +6857,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7A30-4CE0-8329-57A3C6844476}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -6445,6 +6896,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7A30-4CE0-8329-57A3C6844476}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -6479,6 +6935,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7A30-4CE0-8329-57A3C6844476}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -6513,6 +6974,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7A30-4CE0-8329-57A3C6844476}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -6547,6 +7013,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-7A30-4CE0-8329-57A3C6844476}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -6582,6 +7053,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-7A30-4CE0-8329-57A3C6844476}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -6675,6 +7149,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-7A30-4CE0-8329-57A3C6844476}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6774,7 +7253,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -6835,6 +7314,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5A78-4859-9A93-BC83DB0FECEF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6858,6 +7342,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5A78-4859-9A93-BC83DB0FECEF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6881,6 +7370,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5A78-4859-9A93-BC83DB0FECEF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6904,6 +7398,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5A78-4859-9A93-BC83DB0FECEF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6927,6 +7426,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5A78-4859-9A93-BC83DB0FECEF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6950,6 +7454,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5A78-4859-9A93-BC83DB0FECEF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -6985,6 +7494,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5A78-4859-9A93-BC83DB0FECEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -7019,6 +7533,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5A78-4859-9A93-BC83DB0FECEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -7053,6 +7572,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5A78-4859-9A93-BC83DB0FECEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -7087,6 +7611,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5A78-4859-9A93-BC83DB0FECEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -7121,6 +7650,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5A78-4859-9A93-BC83DB0FECEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -7155,6 +7689,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5A78-4859-9A93-BC83DB0FECEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -7247,6 +7786,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5A78-4859-9A93-BC83DB0FECEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7272,12 +7816,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20792099997401314"/>
           <c:y val="0.78070390324016514"/>
-          <c:w val="0.7623770692029832"/>
-          <c:h val="0.90935918097957047"/>
+          <c:w val="0.55445606922897006"/>
+          <c:h val="0.12865527773940533"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7346,7 +7888,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -7469,6 +8011,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-898B-48FD-8374-3D143A29D8DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7563,6 +8110,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-898B-48FD-8374-3D143A29D8DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7657,6 +8209,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-898B-48FD-8374-3D143A29D8DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7751,6 +8308,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-898B-48FD-8374-3D143A29D8DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7845,6 +8407,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-898B-48FD-8374-3D143A29D8DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -7939,6 +8506,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-898B-48FD-8374-3D143A29D8DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8058,12 +8630,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.34384891163052567"/>
           <c:y val="0.84615531450177117"/>
-          <c:w val="0.65142005514294943"/>
-          <c:h val="0.92307839142484815"/>
+          <c:w val="0.30757114351242376"/>
+          <c:h val="7.6923076923076983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8132,7 +8702,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -8193,6 +8763,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9F50-4D70-9471-A75E6D00BDAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8216,6 +8791,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9F50-4D70-9471-A75E6D00BDAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8239,6 +8819,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9F50-4D70-9471-A75E6D00BDAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8262,6 +8847,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9F50-4D70-9471-A75E6D00BDAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -8285,6 +8875,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9F50-4D70-9471-A75E6D00BDAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -8308,6 +8903,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9F50-4D70-9471-A75E6D00BDAA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -8343,6 +8943,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9F50-4D70-9471-A75E6D00BDAA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -8377,6 +8982,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9F50-4D70-9471-A75E6D00BDAA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -8411,6 +9021,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9F50-4D70-9471-A75E6D00BDAA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -8445,6 +9060,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9F50-4D70-9471-A75E6D00BDAA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -8479,6 +9099,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9F50-4D70-9471-A75E6D00BDAA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -8513,6 +9138,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9F50-4D70-9471-A75E6D00BDAA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -8605,6 +9235,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9F50-4D70-9471-A75E6D00BDAA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8630,12 +9265,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20436549597966919"/>
           <c:y val="0.78299120234604103"/>
-          <c:w val="0.75992209307169944"/>
-          <c:h val="0.91202346041055715"/>
+          <c:w val="0.5555565970920302"/>
+          <c:h val="0.12903225806451613"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8704,7 +9337,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -8765,6 +9398,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-214E-4890-BA9C-6CA3E8827759}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8788,6 +9426,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-214E-4890-BA9C-6CA3E8827759}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8811,6 +9454,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-214E-4890-BA9C-6CA3E8827759}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8834,6 +9482,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-214E-4890-BA9C-6CA3E8827759}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -8857,6 +9510,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-214E-4890-BA9C-6CA3E8827759}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -8880,6 +9538,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-214E-4890-BA9C-6CA3E8827759}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -8915,6 +9578,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-214E-4890-BA9C-6CA3E8827759}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -8949,6 +9617,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-214E-4890-BA9C-6CA3E8827759}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -8983,6 +9656,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-214E-4890-BA9C-6CA3E8827759}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -9017,6 +9695,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-214E-4890-BA9C-6CA3E8827759}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -9051,6 +9734,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-214E-4890-BA9C-6CA3E8827759}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -9085,6 +9773,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-214E-4890-BA9C-6CA3E8827759}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -9177,6 +9870,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-214E-4890-BA9C-6CA3E8827759}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9202,12 +9900,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20436549597966919"/>
           <c:y val="0.78299120234604103"/>
-          <c:w val="0.75992209307169944"/>
-          <c:h val="0.91202346041055715"/>
+          <c:w val="0.5555565970920302"/>
+          <c:h val="0.12903225806451613"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9276,7 +9972,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -9348,6 +10044,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6A14-452F-9341-30D4AA8265C4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -9371,6 +10072,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6A14-452F-9341-30D4AA8265C4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -9394,6 +10100,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6A14-452F-9341-30D4AA8265C4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -9417,6 +10128,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6A14-452F-9341-30D4AA8265C4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -9440,6 +10156,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6A14-452F-9341-30D4AA8265C4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -9463,6 +10184,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6A14-452F-9341-30D4AA8265C4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -9498,6 +10224,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6A14-452F-9341-30D4AA8265C4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -9532,6 +10263,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6A14-452F-9341-30D4AA8265C4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -9566,6 +10302,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6A14-452F-9341-30D4AA8265C4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -9600,6 +10341,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6A14-452F-9341-30D4AA8265C4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -9634,9 +10380,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6A14-452F-9341-30D4AA8265C4}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9668,7 +10420,12 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-6A14-452F-9341-30D4AA8265C4}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -9762,6 +10519,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-6A14-452F-9341-30D4AA8265C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9787,12 +10549,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.22950857918716444"/>
           <c:y val="0.79444648585593469"/>
-          <c:w val="0.73952775028804463"/>
-          <c:h val="0.91666899970836979"/>
+          <c:w val="0.51001917110088013"/>
+          <c:h val="0.1222225138524351"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9861,7 +10621,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -9933,6 +10693,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D70F-4D5F-8049-856CD65ECE2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -9956,6 +10721,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D70F-4D5F-8049-856CD65ECE2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -9979,6 +10749,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D70F-4D5F-8049-856CD65ECE2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -10002,6 +10777,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D70F-4D5F-8049-856CD65ECE2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -10025,6 +10805,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D70F-4D5F-8049-856CD65ECE2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -10048,6 +10833,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D70F-4D5F-8049-856CD65ECE2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -10083,6 +10873,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D70F-4D5F-8049-856CD65ECE2C}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -10117,6 +10912,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D70F-4D5F-8049-856CD65ECE2C}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -10151,6 +10951,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D70F-4D5F-8049-856CD65ECE2C}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -10185,6 +10990,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D70F-4D5F-8049-856CD65ECE2C}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -10219,6 +11029,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D70F-4D5F-8049-856CD65ECE2C}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -10254,6 +11069,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D70F-4D5F-8049-856CD65ECE2C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -10347,6 +11165,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D70F-4D5F-8049-856CD65ECE2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10446,7 +11269,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -10507,6 +11330,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B690-4E34-832C-E4A379D5F8E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -10530,6 +11358,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B690-4E34-832C-E4A379D5F8E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -10553,6 +11386,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B690-4E34-832C-E4A379D5F8E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -10576,6 +11414,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B690-4E34-832C-E4A379D5F8E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -10599,6 +11442,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B690-4E34-832C-E4A379D5F8E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -10622,6 +11470,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B690-4E34-832C-E4A379D5F8E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -10657,6 +11510,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B690-4E34-832C-E4A379D5F8E3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -10691,6 +11549,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B690-4E34-832C-E4A379D5F8E3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -10725,6 +11588,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B690-4E34-832C-E4A379D5F8E3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -10759,6 +11627,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B690-4E34-832C-E4A379D5F8E3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -10793,6 +11666,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B690-4E34-832C-E4A379D5F8E3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -10827,6 +11705,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-B690-4E34-832C-E4A379D5F8E3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -10919,6 +11802,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-B690-4E34-832C-E4A379D5F8E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11018,7 +11906,7 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -11121,7 +12009,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -11141,6 +12029,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEB8-4A20-BCD8-E357FC4F3433}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -11221,7 +12114,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -11230,11 +12123,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEB8-4A20-BCD8-E357FC4F3433}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -11309,16 +12207,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -11329,6 +12227,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEB8-4A20-BCD8-E357FC4F3433}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -11409,20 +12312,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AEB8-4A20-BCD8-E357FC4F3433}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -11494,10 +12402,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -11509,7 +12417,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -11517,6 +12425,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AEB8-4A20-BCD8-E357FC4F3433}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -11588,19 +12501,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -11611,6 +12524,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AEB8-4A20-BCD8-E357FC4F3433}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11730,12 +12648,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.34384891163052567"/>
           <c:y val="0.84615531450177117"/>
-          <c:w val="0.65142005514294943"/>
-          <c:h val="0.92307839142484815"/>
+          <c:w val="0.30757114351242376"/>
+          <c:h val="7.6923076923076983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11804,7 +12720,7 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -11865,6 +12781,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A79F-412D-9F45-98720E2D3260}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -11888,6 +12809,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A79F-412D-9F45-98720E2D3260}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -11911,6 +12837,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A79F-412D-9F45-98720E2D3260}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -11934,6 +12865,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A79F-412D-9F45-98720E2D3260}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -11957,6 +12893,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A79F-412D-9F45-98720E2D3260}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -11980,6 +12921,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A79F-412D-9F45-98720E2D3260}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -12015,6 +12961,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A79F-412D-9F45-98720E2D3260}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -12049,6 +13000,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A79F-412D-9F45-98720E2D3260}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -12083,6 +13039,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A79F-412D-9F45-98720E2D3260}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -12117,6 +13078,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A79F-412D-9F45-98720E2D3260}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -12151,6 +13117,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-A79F-412D-9F45-98720E2D3260}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -12185,6 +13156,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-A79F-412D-9F45-98720E2D3260}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -12257,26 +13233,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A79F-412D-9F45-98720E2D3260}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12302,12 +13283,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20436549597966919"/>
           <c:y val="0.78299120234604103"/>
-          <c:w val="0.75992209307169944"/>
-          <c:h val="0.91202346041055715"/>
+          <c:w val="0.5555565970920302"/>
+          <c:h val="0.12903225806451613"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12376,7 +13355,7 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -12448,6 +13427,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -12471,6 +13455,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -12494,6 +13483,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -12517,6 +13511,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -12540,6 +13539,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -12563,6 +13567,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -12598,6 +13607,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -12632,6 +13646,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -12666,6 +13685,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -12700,6 +13724,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -12734,9 +13763,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -12768,7 +13803,12 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -12842,26 +13882,31 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-CCB0-4D4B-9064-B74AFA24ABF2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12887,12 +13932,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.22950857918716444"/>
           <c:y val="0.79444648585593469"/>
-          <c:w val="0.73952775028804463"/>
-          <c:h val="0.91666899970836979"/>
+          <c:w val="0.51001917110088013"/>
+          <c:h val="0.1222225138524351"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12961,7 +14004,7 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -13033,6 +14076,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0950-4E52-8B98-7B65A2B5D9FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -13056,6 +14104,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0950-4E52-8B98-7B65A2B5D9FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -13079,6 +14132,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0950-4E52-8B98-7B65A2B5D9FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -13102,6 +14160,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0950-4E52-8B98-7B65A2B5D9FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -13125,6 +14188,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0950-4E52-8B98-7B65A2B5D9FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -13148,6 +14216,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0950-4E52-8B98-7B65A2B5D9FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -13183,6 +14256,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0950-4E52-8B98-7B65A2B5D9FA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -13217,6 +14295,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0950-4E52-8B98-7B65A2B5D9FA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -13251,6 +14334,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0950-4E52-8B98-7B65A2B5D9FA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -13285,6 +14373,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0950-4E52-8B98-7B65A2B5D9FA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -13319,6 +14412,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0950-4E52-8B98-7B65A2B5D9FA}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -13354,6 +14452,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-0950-4E52-8B98-7B65A2B5D9FA}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -13427,26 +14528,31 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0950-4E52-8B98-7B65A2B5D9FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13546,7 +14652,7 @@
 </file>
 
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -13607,6 +14713,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -13630,6 +14741,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -13653,6 +14769,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -13676,6 +14797,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -13699,6 +14825,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -13722,6 +14853,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -13757,6 +14893,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -13791,6 +14932,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -13825,6 +14971,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -13859,6 +15010,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -13893,6 +15049,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -13927,6 +15088,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -13999,26 +15165,31 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-B81A-4BFB-B1FE-C084DE9BC1C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14118,7 +15289,7 @@
 </file>
 
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -14241,6 +15412,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B435-464B-A99A-3769493B2EE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -14335,6 +15511,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B435-464B-A99A-3769493B2EE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -14429,6 +15610,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B435-464B-A99A-3769493B2EE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -14523,6 +15709,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B435-464B-A99A-3769493B2EE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -14617,6 +15808,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B435-464B-A99A-3769493B2EE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -14711,6 +15907,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B435-464B-A99A-3769493B2EE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14830,12 +16031,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.34384891163052567"/>
           <c:y val="0.84615531450177117"/>
-          <c:w val="0.65142005514294943"/>
-          <c:h val="0.92307839142484815"/>
+          <c:w val="0.30757114351242376"/>
+          <c:h val="7.6923076923076983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -14904,7 +16103,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -14976,6 +16175,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4E67-4B49-86EC-46583781B822}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -14999,6 +16203,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4E67-4B49-86EC-46583781B822}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -15022,6 +16231,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4E67-4B49-86EC-46583781B822}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -15045,6 +16259,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4E67-4B49-86EC-46583781B822}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -15068,6 +16287,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4E67-4B49-86EC-46583781B822}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -15091,6 +16315,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4E67-4B49-86EC-46583781B822}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -15126,6 +16355,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4E67-4B49-86EC-46583781B822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -15160,6 +16394,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4E67-4B49-86EC-46583781B822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -15194,6 +16433,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4E67-4B49-86EC-46583781B822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -15228,6 +16472,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4E67-4B49-86EC-46583781B822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -15262,6 +16511,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4E67-4B49-86EC-46583781B822}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -15297,6 +16551,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4E67-4B49-86EC-46583781B822}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -15390,6 +16647,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4E67-4B49-86EC-46583781B822}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15489,7 +16751,7 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -15550,6 +16812,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D5CE-4CE6-8F25-BCCFA7890464}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -15573,6 +16840,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D5CE-4CE6-8F25-BCCFA7890464}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -15596,6 +16868,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D5CE-4CE6-8F25-BCCFA7890464}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -15619,6 +16896,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D5CE-4CE6-8F25-BCCFA7890464}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -15642,6 +16924,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D5CE-4CE6-8F25-BCCFA7890464}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -15665,6 +16952,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D5CE-4CE6-8F25-BCCFA7890464}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -15700,6 +16992,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D5CE-4CE6-8F25-BCCFA7890464}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -15734,6 +17031,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D5CE-4CE6-8F25-BCCFA7890464}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -15768,6 +17070,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D5CE-4CE6-8F25-BCCFA7890464}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -15802,6 +17109,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D5CE-4CE6-8F25-BCCFA7890464}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -15836,6 +17148,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D5CE-4CE6-8F25-BCCFA7890464}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -15870,6 +17187,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D5CE-4CE6-8F25-BCCFA7890464}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -15962,6 +17284,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D5CE-4CE6-8F25-BCCFA7890464}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15987,12 +17314,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20436549597966919"/>
           <c:y val="0.78299120234604103"/>
-          <c:w val="0.75992209307169944"/>
-          <c:h val="0.91202346041055715"/>
+          <c:w val="0.5555565970920302"/>
+          <c:h val="0.12903225806451613"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -16061,7 +17386,7 @@
 </file>
 
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -16133,6 +17458,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8A3F-4AF7-BE35-44296175627E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -16156,6 +17486,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8A3F-4AF7-BE35-44296175627E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -16179,6 +17514,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8A3F-4AF7-BE35-44296175627E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -16202,6 +17542,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8A3F-4AF7-BE35-44296175627E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -16225,6 +17570,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8A3F-4AF7-BE35-44296175627E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -16248,6 +17598,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8A3F-4AF7-BE35-44296175627E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -16283,6 +17638,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8A3F-4AF7-BE35-44296175627E}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -16317,6 +17677,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8A3F-4AF7-BE35-44296175627E}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -16351,6 +17716,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8A3F-4AF7-BE35-44296175627E}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -16385,6 +17755,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8A3F-4AF7-BE35-44296175627E}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -16419,6 +17794,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8A3F-4AF7-BE35-44296175627E}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -16454,6 +17834,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-8A3F-4AF7-BE35-44296175627E}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -16547,6 +17930,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8A3F-4AF7-BE35-44296175627E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16646,7 +18034,7 @@
 </file>
 
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -16718,6 +18106,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8645-441E-8D52-73BACA29A8C6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -16741,6 +18134,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8645-441E-8D52-73BACA29A8C6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -16764,6 +18162,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8645-441E-8D52-73BACA29A8C6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -16787,6 +18190,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8645-441E-8D52-73BACA29A8C6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -16810,6 +18218,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8645-441E-8D52-73BACA29A8C6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -16833,6 +18246,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8645-441E-8D52-73BACA29A8C6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -16868,6 +18286,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8645-441E-8D52-73BACA29A8C6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -16902,6 +18325,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8645-441E-8D52-73BACA29A8C6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -16936,6 +18364,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8645-441E-8D52-73BACA29A8C6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -16970,6 +18403,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8645-441E-8D52-73BACA29A8C6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -17004,6 +18442,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8645-441E-8D52-73BACA29A8C6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -17039,6 +18482,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-8645-441E-8D52-73BACA29A8C6}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -17132,6 +18578,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8645-441E-8D52-73BACA29A8C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -17231,7 +18682,7 @@
 </file>
 
 <file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -17292,6 +18743,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6148-4BDF-93C8-93D5AE70482F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -17315,6 +18771,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6148-4BDF-93C8-93D5AE70482F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -17338,6 +18799,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6148-4BDF-93C8-93D5AE70482F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -17361,6 +18827,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6148-4BDF-93C8-93D5AE70482F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -17384,6 +18855,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6148-4BDF-93C8-93D5AE70482F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -17407,6 +18883,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6148-4BDF-93C8-93D5AE70482F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -17442,6 +18923,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6148-4BDF-93C8-93D5AE70482F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -17476,6 +18962,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6148-4BDF-93C8-93D5AE70482F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -17510,6 +19001,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6148-4BDF-93C8-93D5AE70482F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -17544,6 +19040,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6148-4BDF-93C8-93D5AE70482F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -17578,6 +19079,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6148-4BDF-93C8-93D5AE70482F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -17612,6 +19118,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-6148-4BDF-93C8-93D5AE70482F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -17704,6 +19215,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-6148-4BDF-93C8-93D5AE70482F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -17803,7 +19319,7 @@
 </file>
 
 <file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -17926,6 +19442,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D89-41F4-B2E4-B1E79CB0BD7E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -18020,6 +19541,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D89-41F4-B2E4-B1E79CB0BD7E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -18114,6 +19640,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D89-41F4-B2E4-B1E79CB0BD7E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -18208,6 +19739,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D89-41F4-B2E4-B1E79CB0BD7E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -18302,6 +19838,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3D89-41F4-B2E4-B1E79CB0BD7E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -18396,6 +19937,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3D89-41F4-B2E4-B1E79CB0BD7E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -18515,12 +20061,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.34542619869677171"/>
           <c:y val="0.84615531450177117"/>
-          <c:w val="0.65299734220919547"/>
-          <c:h val="0.92307839142484815"/>
+          <c:w val="0.30757114351242376"/>
+          <c:h val="7.6923076923076983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -18589,7 +20133,7 @@
 </file>
 
 <file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -18650,6 +20194,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C5A2-498D-B303-DD4F0A293A84}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -18673,6 +20222,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C5A2-498D-B303-DD4F0A293A84}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -18696,6 +20250,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C5A2-498D-B303-DD4F0A293A84}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -18719,6 +20278,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C5A2-498D-B303-DD4F0A293A84}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -18742,6 +20306,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C5A2-498D-B303-DD4F0A293A84}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -18765,6 +20334,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-C5A2-498D-B303-DD4F0A293A84}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -18800,6 +20374,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C5A2-498D-B303-DD4F0A293A84}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -18834,6 +20413,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C5A2-498D-B303-DD4F0A293A84}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -18868,6 +20452,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C5A2-498D-B303-DD4F0A293A84}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -18902,6 +20491,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-C5A2-498D-B303-DD4F0A293A84}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -18936,6 +20530,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C5A2-498D-B303-DD4F0A293A84}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -18970,6 +20569,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C5A2-498D-B303-DD4F0A293A84}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -19062,6 +20666,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C5A2-498D-B303-DD4F0A293A84}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -19087,12 +20696,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20436549597966919"/>
           <c:y val="0.78299120234604103"/>
-          <c:w val="0.75992209307169944"/>
-          <c:h val="0.91202346041055715"/>
+          <c:w val="0.5555565970920302"/>
+          <c:h val="0.12903225806451613"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -19161,7 +20768,7 @@
 </file>
 
 <file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -19233,6 +20840,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -19256,6 +20868,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -19279,6 +20896,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -19302,6 +20924,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -19325,6 +20952,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -19348,6 +20980,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -19383,6 +21020,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -19417,6 +21059,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -19451,6 +21098,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -19485,6 +21137,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -19519,6 +21176,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -19554,6 +21216,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -19647,6 +21312,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -19746,7 +21416,7 @@
 </file>
 
 <file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -19818,6 +21488,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -19841,6 +21516,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -19864,6 +21544,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -19887,6 +21572,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -19910,6 +21600,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -19933,6 +21628,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -19968,6 +21668,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -20002,6 +21707,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -20036,6 +21746,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -20070,6 +21785,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -20104,6 +21824,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -20139,6 +21864,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -20232,6 +21960,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9E0C-4B54-826B-5DC5A1E28DFF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -20331,7 +22064,7 @@
 </file>
 
 <file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -20392,6 +22125,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-157E-481E-989C-49AE8DE66888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -20415,6 +22153,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-157E-481E-989C-49AE8DE66888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -20438,6 +22181,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-157E-481E-989C-49AE8DE66888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -20461,6 +22209,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-157E-481E-989C-49AE8DE66888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -20484,6 +22237,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-157E-481E-989C-49AE8DE66888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -20507,6 +22265,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-157E-481E-989C-49AE8DE66888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -20542,6 +22305,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-157E-481E-989C-49AE8DE66888}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -20576,6 +22344,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-157E-481E-989C-49AE8DE66888}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -20610,6 +22383,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-157E-481E-989C-49AE8DE66888}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -20644,6 +22422,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-157E-481E-989C-49AE8DE66888}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -20678,6 +22461,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-157E-481E-989C-49AE8DE66888}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -20712,6 +22500,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-157E-481E-989C-49AE8DE66888}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -20804,6 +22597,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-157E-481E-989C-49AE8DE66888}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -20903,7 +22701,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -20975,6 +22773,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9499-4EA7-B907-2D9028CEBCA5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -20998,6 +22801,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9499-4EA7-B907-2D9028CEBCA5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -21021,6 +22829,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9499-4EA7-B907-2D9028CEBCA5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -21044,6 +22857,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9499-4EA7-B907-2D9028CEBCA5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -21067,6 +22885,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9499-4EA7-B907-2D9028CEBCA5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -21090,6 +22913,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9499-4EA7-B907-2D9028CEBCA5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -21125,6 +22953,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9499-4EA7-B907-2D9028CEBCA5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -21159,6 +22992,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9499-4EA7-B907-2D9028CEBCA5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -21193,6 +23031,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9499-4EA7-B907-2D9028CEBCA5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -21227,6 +23070,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9499-4EA7-B907-2D9028CEBCA5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -21261,6 +23109,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9499-4EA7-B907-2D9028CEBCA5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -21296,6 +23149,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9499-4EA7-B907-2D9028CEBCA5}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -21389,6 +23245,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9499-4EA7-B907-2D9028CEBCA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -21488,7 +23349,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -21549,6 +23410,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E4C2-4154-AE59-977B7B7A885F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -21572,6 +23438,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E4C2-4154-AE59-977B7B7A885F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -21595,6 +23466,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E4C2-4154-AE59-977B7B7A885F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -21618,6 +23494,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E4C2-4154-AE59-977B7B7A885F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -21641,6 +23522,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E4C2-4154-AE59-977B7B7A885F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -21664,6 +23550,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-E4C2-4154-AE59-977B7B7A885F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -21699,6 +23590,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E4C2-4154-AE59-977B7B7A885F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -21733,6 +23629,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E4C2-4154-AE59-977B7B7A885F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -21767,6 +23668,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E4C2-4154-AE59-977B7B7A885F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -21801,6 +23707,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E4C2-4154-AE59-977B7B7A885F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -21835,6 +23746,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E4C2-4154-AE59-977B7B7A885F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -21869,6 +23785,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-E4C2-4154-AE59-977B7B7A885F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -21961,6 +23882,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E4C2-4154-AE59-977B7B7A885F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -21986,12 +23912,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20792099997401314"/>
           <c:y val="0.78070390324016514"/>
-          <c:w val="0.7623770692029832"/>
-          <c:h val="0.90935918097957047"/>
+          <c:w val="0.55445606922897006"/>
+          <c:h val="0.12865527773940533"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -22060,7 +23984,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -22183,6 +24107,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DDE-4793-B2B5-2BBC9A429262}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -22277,6 +24206,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DDE-4793-B2B5-2BBC9A429262}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -22371,6 +24305,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DDE-4793-B2B5-2BBC9A429262}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -22465,6 +24404,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4DDE-4793-B2B5-2BBC9A429262}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -22559,6 +24503,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4DDE-4793-B2B5-2BBC9A429262}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -22653,6 +24602,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4DDE-4793-B2B5-2BBC9A429262}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -22846,7 +24800,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -22907,6 +24861,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5856-4473-8C98-D0D71B1E254D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -22930,6 +24889,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5856-4473-8C98-D0D71B1E254D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -22953,6 +24917,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5856-4473-8C98-D0D71B1E254D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -22976,6 +24945,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5856-4473-8C98-D0D71B1E254D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -22999,6 +24973,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5856-4473-8C98-D0D71B1E254D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -23022,6 +25001,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5856-4473-8C98-D0D71B1E254D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -23057,6 +25041,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5856-4473-8C98-D0D71B1E254D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -23091,6 +25080,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5856-4473-8C98-D0D71B1E254D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -23125,6 +25119,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5856-4473-8C98-D0D71B1E254D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -23159,6 +25158,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5856-4473-8C98-D0D71B1E254D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -23193,6 +25197,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5856-4473-8C98-D0D71B1E254D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -23227,6 +25236,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5856-4473-8C98-D0D71B1E254D}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -23319,6 +25333,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5856-4473-8C98-D0D71B1E254D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -23418,7 +25437,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -23490,6 +25509,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -23513,6 +25537,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -23536,6 +25565,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -23559,6 +25593,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -23582,6 +25621,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -23605,6 +25649,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -23640,6 +25689,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -23674,6 +25728,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -23708,6 +25767,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -23742,6 +25806,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -23776,6 +25845,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -23811,6 +25885,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -23904,6 +25981,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4DF8-4D1F-8F9F-7773B2B201CC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -24003,7 +26085,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -24075,6 +26157,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DAA5-4D54-87C0-8047FB47C94B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -24098,6 +26185,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DAA5-4D54-87C0-8047FB47C94B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -24121,6 +26213,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DAA5-4D54-87C0-8047FB47C94B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -24144,6 +26241,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DAA5-4D54-87C0-8047FB47C94B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -24167,6 +26269,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DAA5-4D54-87C0-8047FB47C94B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -24190,6 +26297,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-DAA5-4D54-87C0-8047FB47C94B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -24225,6 +26337,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DAA5-4D54-87C0-8047FB47C94B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -24259,6 +26376,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DAA5-4D54-87C0-8047FB47C94B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -24293,6 +26415,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DAA5-4D54-87C0-8047FB47C94B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -24327,6 +26454,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-DAA5-4D54-87C0-8047FB47C94B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -24361,6 +26493,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-DAA5-4D54-87C0-8047FB47C94B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -24396,6 +26533,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-DAA5-4D54-87C0-8047FB47C94B}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
@@ -24489,6 +26629,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-DAA5-4D54-87C0-8047FB47C94B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -26193,7 +28338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -28051,8 +30196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28975,7 +31120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -29856,7 +32001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -30722,8 +32867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30813,264 +32958,208 @@
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="11" t="e">
-        <f t="shared" ref="H6:H13" si="0">B6+C6+D6+E6+F6+G6</f>
-        <v>#REF!</v>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B7" s="15">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>9</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>6</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>11</v>
+      </c>
+      <c r="F11" s="15">
+        <v>3</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="e">
-        <f t="shared" ref="B13:G13" si="1">B6+B7+B8+B10+B9+B11+B12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="19" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17">
+        <v>16</v>
+      </c>
+      <c r="E13" s="18">
+        <v>20</v>
+      </c>
+      <c r="F13" s="17">
+        <v>8</v>
+      </c>
+      <c r="G13" s="18">
+        <v>21</v>
+      </c>
+      <c r="H13" s="19">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31093,52 +33182,52 @@
       <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="e">
+      <c r="B18" s="10">
         <f>B13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" s="23" t="e">
+        <v>9</v>
+      </c>
+      <c r="C18" s="23">
         <f>B18*30</f>
-        <v>#REF!</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14" t="e">
+      <c r="B19" s="14">
         <f>C13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="25" t="e">
+        <v>21</v>
+      </c>
+      <c r="C19" s="25">
         <f>B19*20</f>
-        <v>#REF!</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="e">
+      <c r="B20" s="10">
         <f>D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="23" t="e">
+        <v>16</v>
+      </c>
+      <c r="C20" s="23">
         <f>B20*22</f>
-        <v>#REF!</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="14" t="e">
+      <c r="B21" s="14">
         <f>E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="25" t="e">
+        <v>20</v>
+      </c>
+      <c r="C21" s="25">
         <f>B21*25</f>
-        <v>#REF!</v>
+        <v>500</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>27</v>
@@ -31148,39 +33237,39 @@
       <c r="A22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10" t="e">
+      <c r="B22" s="10">
         <f>F13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="23" t="e">
+        <v>8</v>
+      </c>
+      <c r="C22" s="23">
         <f>B22*15</f>
-        <v>#REF!</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14" t="e">
+      <c r="B23" s="14">
         <f>G13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="25" t="e">
+        <v>21</v>
+      </c>
+      <c r="C23" s="25">
         <f>B23*15</f>
-        <v>#REF!</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="18" t="e">
+      <c r="B24" s="18">
         <f>B18+B19+B20+B21+B22+B23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="28" t="e">
+        <v>95</v>
+      </c>
+      <c r="C24" s="28">
         <f>C18+C19+C20+C21+C22+C23</f>
-        <v>#REF!</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -31226,138 +33315,111 @@
       <c r="A32" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33">
-        <f t="shared" ref="H32:H39" si="2">B32+C32+D32+E32+F32+G32</f>
-        <v>0</v>
-      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" ref="B39:G39" si="3">B32+B33+B34+B36+B35+B37+B38</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>B39+C39+D39+E39+F39+G39</f>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31392,211 +33454,211 @@
       <c r="A44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="10" t="e">
-        <f t="shared" ref="B44:B49" si="4">B18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C44" s="39" t="e">
+      <c r="B44" s="10">
+        <f t="shared" ref="B44:B49" si="0">B18</f>
+        <v>9</v>
+      </c>
+      <c r="C44" s="39">
         <f>B$39-B44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D44" s="39" t="e">
-        <f t="shared" ref="D44:D49" si="5">B44+C44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="23" t="e">
-        <f t="shared" ref="E44:E50" si="6">C18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F44" s="23" t="e">
+        <v>-2</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" ref="D44:D49" si="1">B44+C44</f>
+        <v>7</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" ref="E44:E50" si="2">C18</f>
+        <v>270</v>
+      </c>
+      <c r="F44" s="23">
         <f>(C44*30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G44" s="23" t="e">
+        <v>-60</v>
+      </c>
+      <c r="G44" s="23">
         <f>(D44*30)</f>
-        <v>#REF!</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C45" s="45" t="e">
+      <c r="B45" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C45" s="45">
         <f>C$39-B45</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F45" s="25" t="e">
+        <v>-5</v>
+      </c>
+      <c r="D45" s="45">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="F45" s="25">
         <f>(C45*20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G45" s="25" t="e">
+        <v>-100</v>
+      </c>
+      <c r="G45" s="25">
         <f>(D45*20)</f>
-        <v>#REF!</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="39" t="e">
+      <c r="B46" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C46" s="39">
         <f>D$39-B46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F46" s="23" t="e">
+        <v>-8</v>
+      </c>
+      <c r="D46" s="39">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="F46" s="23">
         <f>(C46*22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" s="23" t="e">
+        <v>-176</v>
+      </c>
+      <c r="G46" s="23">
         <f>(D46*22)</f>
-        <v>#REF!</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C47" s="45" t="e">
+      <c r="B47" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C47" s="45">
         <f>E$39-B47</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D47" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F47" s="25" t="e">
+        <v>-10</v>
+      </c>
+      <c r="D47" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="25">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F47" s="25">
         <f>(C47*25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G47" s="25" t="e">
+        <v>-250</v>
+      </c>
+      <c r="G47" s="25">
         <f>(D47*25)</f>
-        <v>#REF!</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C48" s="39" t="e">
+      <c r="B48" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C48" s="39">
         <f>F$39-B48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D48" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F48" s="23" t="e">
+        <v>12</v>
+      </c>
+      <c r="D48" s="39">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E48" s="23">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="F48" s="23">
         <f>(C48*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G48" s="23" t="e">
+        <v>180</v>
+      </c>
+      <c r="G48" s="23">
         <f>(D48*15)</f>
-        <v>#REF!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C49" s="45" t="e">
+      <c r="B49" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C49" s="45">
         <f>G$39-B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D49" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F49" s="25" t="e">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="45">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E49" s="25">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="F49" s="25">
         <f>(C49*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G49" s="25" t="e">
+        <v>-15</v>
+      </c>
+      <c r="G49" s="25">
         <f>(D49*15)</f>
-        <v>#REF!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="18" t="e">
+      <c r="B50" s="18">
         <f>B44+B45+B46+B47+B48+B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C50" s="40" t="e">
+        <v>95</v>
+      </c>
+      <c r="C50" s="40">
         <f>H39-B50</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="40" t="e">
+        <v>-14</v>
+      </c>
+      <c r="D50" s="40">
         <f>SUM(D44:D49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" s="41" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F50" s="28" t="e">
+        <v>81</v>
+      </c>
+      <c r="E50" s="41">
+        <f t="shared" si="2"/>
+        <v>1977</v>
+      </c>
+      <c r="F50" s="28">
         <f>SUM(F44:F49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G50" s="28" t="e">
+        <v>-421</v>
+      </c>
+      <c r="G50" s="28">
         <f>SUM(G44:G49)</f>
-        <v>#REF!</v>
+        <v>1556</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documents/RA/ExternalDocuments/PianoDiProgetto/consuntivi/consuntivo.xlsx
+++ b/Documents/RA/ExternalDocuments/PianoDiProgetto/consuntivi/consuntivo.xlsx
@@ -4275,7 +4275,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4307,9 +4306,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-B8F5-4B74-9221-990DC78BCFB6}"/>
                 </c:ext>
@@ -10388,7 +10385,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -10420,9 +10416,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-6A14-452F-9341-30D4AA8265C4}"/>
                 </c:ext>
@@ -14534,13 +14528,13 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>300</c:v>
@@ -15171,13 +15165,13 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20</c:v>
@@ -32867,8 +32861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33406,20 +33400,20 @@
         <v>16</v>
       </c>
       <c r="D39" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" s="18">
         <v>10</v>
       </c>
       <c r="F39" s="17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G39" s="18">
         <v>20</v>
       </c>
       <c r="H39" s="19">
         <f>B39+C39+D39+E39+F39+G39</f>
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33518,11 +33512,11 @@
       </c>
       <c r="C46" s="39">
         <f>D$39-B46</f>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="D46" s="39">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E46" s="23">
         <f t="shared" si="2"/>
@@ -33530,11 +33524,11 @@
       </c>
       <c r="F46" s="23">
         <f>(C46*22)</f>
-        <v>-176</v>
+        <v>-132</v>
       </c>
       <c r="G46" s="23">
         <f>(D46*22)</f>
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33576,11 +33570,11 @@
       </c>
       <c r="C48" s="39">
         <f>F$39-B48</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D48" s="39">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E48" s="23">
         <f t="shared" si="2"/>
@@ -33588,11 +33582,11 @@
       </c>
       <c r="F48" s="23">
         <f>(C48*15)</f>
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G48" s="23">
         <f>(D48*15)</f>
-        <v>300</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33634,11 +33628,11 @@
       </c>
       <c r="C50" s="40">
         <f>H39-B50</f>
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="D50" s="40">
         <f>SUM(D44:D49)</f>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E50" s="41">
         <f t="shared" si="2"/>
@@ -33646,11 +33640,11 @@
       </c>
       <c r="F50" s="28">
         <f>SUM(F44:F49)</f>
-        <v>-421</v>
+        <v>-332</v>
       </c>
       <c r="G50" s="28">
         <f>SUM(G44:G49)</f>
-        <v>1556</v>
+        <v>1645</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/RA/ExternalDocuments/PianoDiProgetto/consuntivi/consuntivo.xlsx
+++ b/Documents/RA/ExternalDocuments/PianoDiProgetto/consuntivi/consuntivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Fase A" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="48">
   <si>
     <t>Preventivo</t>
   </si>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>Consuntivo Finale</t>
+  </si>
+  <si>
+    <r>
+      <t>Somma ore membri (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEVONO COINCIDERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2286,22 +2310,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,12 +2360,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20792099997401314"/>
           <c:y val="0.78070390324016514"/>
-          <c:w val="0.7623770692029832"/>
-          <c:h val="0.90935918097957047"/>
+          <c:w val="0.55445606922897006"/>
+          <c:h val="0.12865527773940533"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2516,7 +2538,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2528,7 +2550,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,7 +2634,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2621,10 +2643,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2708,7 +2730,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2717,16 +2739,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,25 +2829,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,7 +2928,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2915,10 +2937,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3005,25 +3027,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,22 +3759,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,6 +4297,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4306,7 +4329,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-B8F5-4B74-9221-990DC78BCFB6}"/>
                 </c:ext>
@@ -4383,22 +4408,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>325</c:v>
+                  <c:v>1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>705</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4614,10 +4639,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4710,7 +4735,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4806,22 +4831,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,7 +4927,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4914,7 +4939,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5004,22 +5029,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5100,7 +5125,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5115,10 +5140,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5832,22 +5857,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6370,6 +6395,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6401,7 +6427,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-F1F3-4C0E-BAF7-4FED047631AB}"/>
                 </c:ext>
@@ -6478,22 +6506,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6528,12 +6556,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.22950857918716444"/>
           <c:y val="0.79444648585593469"/>
-          <c:w val="0.73952775028804463"/>
-          <c:h val="0.91666899970836979"/>
+          <c:w val="0.51001917110088013"/>
+          <c:h val="0.1222225138524351"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7018,6 +7044,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7049,7 +7076,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-7A30-4CE0-8329-57A3C6844476}"/>
                 </c:ext>
@@ -7126,22 +7155,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7176,12 +7205,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.23090928179432116"/>
           <c:y val="0.79501501370500427"/>
-          <c:w val="0.74000057265569075"/>
-          <c:h val="0.91689896103707247"/>
+          <c:w val="0.50909129086136962"/>
+          <c:h val="0.1218839473320682"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7763,22 +7790,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7991,7 +8018,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -8087,7 +8114,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8198,10 +8225,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8282,10 +8309,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8297,10 +8324,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8381,7 +8408,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -8390,10 +8417,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8480,25 +8507,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9847,22 +9874,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10385,6 +10412,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -10416,7 +10444,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-6A14-452F-9341-30D4AA8265C4}"/>
                 </c:ext>
@@ -10493,22 +10523,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11031,6 +11061,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -11062,7 +11093,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-D70F-4D5F-8049-856CD65ECE2C}"/>
                 </c:ext>
@@ -11139,22 +11172,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11189,12 +11222,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.23090928179432116"/>
           <c:y val="0.79501501370500427"/>
-          <c:w val="0.74000057265569075"/>
-          <c:h val="0.91689896103707247"/>
+          <c:w val="0.50909129086136962"/>
+          <c:h val="0.1218839473320682"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11776,22 +11807,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11826,12 +11857,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20792099997401314"/>
           <c:y val="0.78070390324016514"/>
-          <c:w val="0.7623770692029832"/>
-          <c:h val="0.90935918097957047"/>
+          <c:w val="0.55445606922897006"/>
+          <c:h val="0.12865527773940533"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -15398,7 +15427,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -15482,7 +15511,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -15491,7 +15520,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -15599,7 +15628,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15782,10 +15811,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -15794,7 +15823,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -15878,25 +15907,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16513,6 +16542,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -16544,7 +16574,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-4E67-4B49-86EC-46583781B822}"/>
                 </c:ext>
@@ -16671,12 +16703,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.22950857918716444"/>
           <c:y val="0.79444648585593469"/>
-          <c:w val="0.73952775028804463"/>
-          <c:h val="0.91666899970836979"/>
+          <c:w val="0.51001917110088013"/>
+          <c:h val="0.1222225138524351"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -17258,22 +17288,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17796,6 +17826,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -17827,7 +17858,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-8A3F-4AF7-BE35-44296175627E}"/>
                 </c:ext>
@@ -17904,22 +17937,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17954,12 +17987,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.22950857918716444"/>
           <c:y val="0.79444648585593469"/>
-          <c:w val="0.73952775028804463"/>
-          <c:h val="0.91666899970836979"/>
+          <c:w val="0.51001917110088013"/>
+          <c:h val="0.1222225138524351"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -18552,22 +18583,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19189,22 +19220,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19413,25 +19444,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19512,25 +19543,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19611,25 +19642,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19710,25 +19741,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19809,25 +19840,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19908,25 +19939,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20640,22 +20671,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21178,6 +21209,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -21209,7 +21241,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-80B1-4F4C-98CD-FFD87EE7FAD9}"/>
                 </c:ext>
@@ -21286,22 +21320,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1660</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3080</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21336,12 +21370,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.23133007281193674"/>
           <c:y val="0.79166870807815692"/>
-          <c:w val="0.74134924391281687"/>
-          <c:h val="0.91389122193059202"/>
+          <c:w val="0.51001917110088013"/>
+          <c:h val="0.1222225138524351"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -21826,6 +21858,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -21857,7 +21890,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-9E0C-4B54-826B-5DC5A1E28DFF}"/>
                 </c:ext>
@@ -21934,22 +21969,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21984,12 +22019,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.23272746361250296"/>
           <c:y val="0.79224493060251122"/>
-          <c:w val="0.74181875447387258"/>
-          <c:h val="0.91412887793457942"/>
+          <c:w val="0.50909129086136962"/>
+          <c:h val="0.1218839473320682"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -22571,22 +22604,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22621,12 +22654,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20792099997401314"/>
           <c:y val="0.78070390324016514"/>
-          <c:w val="0.7623770692029832"/>
-          <c:h val="0.90935918097957047"/>
+          <c:w val="0.55445606922897006"/>
+          <c:h val="0.12865527773940533"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -24078,7 +24109,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -24177,13 +24208,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -24384,16 +24415,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24576,22 +24607,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24720,12 +24751,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.34384891163052567"/>
           <c:y val="0.84615531450177117"/>
-          <c:w val="0.65142005514294943"/>
-          <c:h val="0.92307839142484815"/>
+          <c:w val="0.30757114351242376"/>
+          <c:h val="7.6923076923076983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -25307,22 +25336,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25357,12 +25386,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.20436549597966919"/>
           <c:y val="0.78299120234604103"/>
-          <c:w val="0.75992209307169944"/>
-          <c:h val="0.91202346041055715"/>
+          <c:w val="0.5555565970920302"/>
+          <c:h val="0.12903225806451613"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -25847,6 +25874,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -25878,7 +25906,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-4DF8-4D1F-8F9F-7773B2B201CC}"/>
                 </c:ext>
@@ -25955,22 +25985,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26005,12 +26035,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.22950857918716444"/>
           <c:y val="0.79444648585593469"/>
-          <c:w val="0.73952775028804463"/>
-          <c:h val="0.91666899970836979"/>
+          <c:w val="0.51001917110088013"/>
+          <c:h val="0.1222225138524351"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -26495,6 +26523,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:numFmt formatCode="&quot;€ &quot;#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -26526,7 +26555,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-DAA5-4D54-87C0-8047FB47C94B}"/>
                 </c:ext>
@@ -26603,22 +26634,22 @@
                 <c:formatCode>"€ "#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26653,12 +26684,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.23272746361250296"/>
           <c:y val="0.79224493060251122"/>
-          <c:w val="0.74181875447387258"/>
-          <c:h val="0.91412887793457942"/>
+          <c:w val="0.50909129086136962"/>
+          <c:h val="0.1218839473320682"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -28332,8 +28361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28953,11 +28982,11 @@
         <v>18</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" ref="B39:G39" si="3">B32+B33+B34+B36+B35+B37+B38</f>
-        <v>40</v>
+        <f ca="1">'Fase V'!B39+'Fase PDRD'!B39+'Fase PDRD'!B39+'Fase PDROB'!B39+'Fase PA'!B39+'Fase AD'!B39+'Fase A'!B39</f>
+        <v>0</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B39:G39" si="3">C32+C33+C34+C36+C35+C37+C38</f>
         <v>99</v>
       </c>
       <c r="D39" s="17">
@@ -28977,7 +29006,7 @@
         <v>60</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>288</v>
       </c>
     </row>
@@ -29018,11 +29047,11 @@
         <v>33</v>
       </c>
       <c r="C44" s="39">
-        <f>B$39-B44</f>
+        <f ca="1">B$39-B44</f>
         <v>7</v>
       </c>
       <c r="D44" s="39">
-        <f t="shared" ref="D44:D49" si="5">B44+C44</f>
+        <f t="shared" ref="D44:D49" ca="1" si="5">B44+C44</f>
         <v>40</v>
       </c>
       <c r="E44" s="23">
@@ -29030,11 +29059,11 @@
         <v>990</v>
       </c>
       <c r="F44" s="23">
-        <f>(C44*30)</f>
+        <f ca="1">(C44*30)</f>
         <v>210</v>
       </c>
       <c r="G44" s="23">
-        <f>(D44*30)</f>
+        <f ca="1">(D44*30)</f>
         <v>1200</v>
       </c>
     </row>
@@ -29192,11 +29221,11 @@
         <v>280</v>
       </c>
       <c r="C50" s="40">
-        <f>H39-B50</f>
+        <f ca="1">H39-B50</f>
         <v>8</v>
       </c>
       <c r="D50" s="40">
-        <f>SUM(D44:D49)</f>
+        <f ca="1">SUM(D44:D49)</f>
         <v>288</v>
       </c>
       <c r="E50" s="41">
@@ -29204,11 +29233,11 @@
         <v>5990</v>
       </c>
       <c r="F50" s="28">
-        <f>SUM(F44:F49)</f>
+        <f ca="1">SUM(F44:F49)</f>
         <v>315</v>
       </c>
       <c r="G50" s="28">
-        <f>SUM(G44:G49)</f>
+        <f ca="1">SUM(G44:G49)</f>
         <v>6305</v>
       </c>
     </row>
@@ -29225,8 +29254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29315,264 +29344,208 @@
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="11" t="e">
-        <f t="shared" ref="H6:H13" si="0">B6+C6+D6+E6+F6+G6</f>
-        <v>#REF!</v>
+      <c r="B6" s="11">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>6</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>6</v>
+      </c>
+      <c r="H9" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>7</v>
+      </c>
+      <c r="H11" s="15">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>6</v>
+      </c>
+      <c r="H12" s="11">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="e">
-        <f t="shared" ref="B13:G13" si="1">B6+B7+B8+B10+B9+B11+B12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="19" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="19" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="19" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="19" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="19" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18">
+        <v>14</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>20</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>38</v>
+      </c>
+      <c r="H13" s="19">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29595,52 +29568,52 @@
       <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="e">
+      <c r="B18" s="10">
         <f>B13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" s="23" t="e">
+        <v>9</v>
+      </c>
+      <c r="C18" s="23">
         <f>B18*30</f>
-        <v>#REF!</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14" t="e">
+      <c r="B19" s="14">
         <f>C13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="25" t="e">
+        <v>14</v>
+      </c>
+      <c r="C19" s="25">
         <f>B19*20</f>
-        <v>#REF!</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="e">
+      <c r="B20" s="10">
         <f>D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="C20" s="23">
         <f>B20*22</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="14" t="e">
+      <c r="B21" s="14">
         <f>E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="25" t="e">
+        <v>20</v>
+      </c>
+      <c r="C21" s="25">
         <f>B21*25</f>
-        <v>#REF!</v>
+        <v>500</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>27</v>
@@ -29650,39 +29623,39 @@
       <c r="A22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10" t="e">
+      <c r="B22" s="10">
         <f>F13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="C22" s="23">
         <f>B22*15</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14" t="e">
+      <c r="B23" s="14">
         <f>G13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="25" t="e">
+        <v>38</v>
+      </c>
+      <c r="C23" s="25">
         <f>B23*15</f>
-        <v>#REF!</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="18" t="e">
+      <c r="B24" s="18">
         <f>B18+B19+B20+B21+B22+B23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="28" t="e">
+        <v>81</v>
+      </c>
+      <c r="C24" s="28">
         <f>C18+C19+C20+C21+C22+C23</f>
-        <v>#REF!</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -29747,7 +29720,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="33">
-        <f t="shared" ref="H32:H39" si="2">B32+C32+D32+E32+F32+G32</f>
+        <f t="shared" ref="H32:H39" si="0">B32+C32+D32+E32+F32+G32</f>
         <v>13</v>
       </c>
     </row>
@@ -29774,7 +29747,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -29801,7 +29774,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -29828,7 +29801,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -29855,7 +29828,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -29882,7 +29855,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -29909,7 +29882,7 @@
         <v>6</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -29918,31 +29891,31 @@
         <v>18</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" ref="B39:G39" si="3">B32+B33+B34+B36+B35+B37+B38</f>
+        <f t="shared" ref="B39:G39" si="1">B32+B33+B34+B36+B35+B37+B38</f>
         <v>10</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
     </row>
@@ -29978,203 +29951,203 @@
       <c r="A44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="10" t="e">
-        <f t="shared" ref="B44:B49" si="4">B18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C44" s="39" t="e">
+      <c r="B44" s="10">
+        <f t="shared" ref="B44:B49" si="2">B18</f>
+        <v>9</v>
+      </c>
+      <c r="C44" s="39">
         <f>B$39-B44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D44" s="39" t="e">
-        <f t="shared" ref="D44:D49" si="5">B44+C44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="23" t="e">
-        <f t="shared" ref="E44:E50" si="6">C18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F44" s="23" t="e">
+        <v>1</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" ref="D44:D49" si="3">B44+C44</f>
+        <v>10</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" ref="E44:E50" si="4">C18</f>
+        <v>270</v>
+      </c>
+      <c r="F44" s="23">
         <f>(C44*30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G44" s="23" t="e">
+        <v>30</v>
+      </c>
+      <c r="G44" s="23">
         <f>(D44*30)</f>
-        <v>#REF!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="14" t="e">
+      <c r="B45" s="14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C45" s="39">
+        <f>C$39-B45</f>
+        <v>6</v>
+      </c>
+      <c r="D45" s="39">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E45" s="25">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C45" s="39" t="e">
-        <f>C$39-B45</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F45" s="23" t="e">
+        <v>280</v>
+      </c>
+      <c r="F45" s="23">
         <f>(C45*20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G45" s="23" t="e">
+        <v>120</v>
+      </c>
+      <c r="G45" s="23">
         <f>(D45*20)</f>
-        <v>#REF!</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="10" t="e">
+      <c r="B46" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="39">
+        <f>D$39-B46</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="23">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="39" t="e">
-        <f>D$39-B46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F46" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23">
         <f>(C46*22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
         <f>(D46*22)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="14" t="e">
+      <c r="B47" s="14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C47" s="39">
+        <f>E$39-B47</f>
+        <v>9</v>
+      </c>
+      <c r="D47" s="39">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="E47" s="25">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C47" s="39" t="e">
-        <f>E$39-B47</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D47" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F47" s="23" t="e">
+        <v>500</v>
+      </c>
+      <c r="F47" s="23">
         <f>(C47*25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G47" s="23" t="e">
+        <v>225</v>
+      </c>
+      <c r="G47" s="23">
         <f>(D47*25)</f>
-        <v>#REF!</v>
+        <v>725</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="10" t="e">
+      <c r="B48" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="39">
+        <f>F$39-B48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="23">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C48" s="39" t="e">
-        <f>F$39-B48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D48" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F48" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="F48" s="23">
         <f>(C48*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G48" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="G48" s="23">
         <f>(D48*15)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="14" t="e">
+      <c r="B49" s="14">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C49" s="39">
+        <f>G$39-B49</f>
+        <v>-11</v>
+      </c>
+      <c r="D49" s="39">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="E49" s="25">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C49" s="39" t="e">
-        <f>G$39-B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D49" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F49" s="23" t="e">
+        <v>570</v>
+      </c>
+      <c r="F49" s="23">
         <f>(C49*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G49" s="23" t="e">
+        <v>-165</v>
+      </c>
+      <c r="G49" s="23">
         <f>(D49*15)</f>
-        <v>#REF!</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="18" t="e">
+      <c r="B50" s="18">
         <f>B44+B45+B46+B47+B48+B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C50" s="40" t="e">
+        <v>81</v>
+      </c>
+      <c r="C50" s="40">
         <f>H39-B50</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="40" t="e">
+        <v>5</v>
+      </c>
+      <c r="D50" s="40">
         <f>SUM(D44:D49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" s="41" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F50" s="28" t="e">
+        <v>86</v>
+      </c>
+      <c r="E50" s="41">
+        <f t="shared" si="4"/>
+        <v>1620</v>
+      </c>
+      <c r="F50" s="28">
         <f>SUM(F44:F49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G50" s="28" t="e">
+        <v>210</v>
+      </c>
+      <c r="G50" s="28">
         <f>SUM(G44:G49)</f>
-        <v>#REF!</v>
+        <v>1830</v>
       </c>
     </row>
   </sheetData>
@@ -30190,8 +30163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30288,20 +30261,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
       <c r="G6" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" ref="H6:H13" si="0">B6+C6+D6+E6+F6+G6</f>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30312,23 +30284,22 @@
         <v>0</v>
       </c>
       <c r="C7" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
       </c>
       <c r="E7" s="11">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F7" s="11">
         <v>0</v>
       </c>
       <c r="G7" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="15">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30336,7 +30307,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="11">
         <v>0</v>
@@ -30345,17 +30316,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F8" s="11">
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30369,20 +30339,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="11">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
         <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>10</v>
       </c>
       <c r="G9" s="11">
         <v>5</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30393,23 +30362,22 @@
         <v>0</v>
       </c>
       <c r="C10" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
       </c>
       <c r="F10" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30420,23 +30388,22 @@
         <v>0</v>
       </c>
       <c r="C11" s="11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
         <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11">
-        <v>4</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
       </c>
       <c r="G11" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30444,26 +30411,25 @@
         <v>17</v>
       </c>
       <c r="B12" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11">
         <v>0</v>
       </c>
       <c r="D12" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F12" s="11">
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30471,32 +30437,25 @@
         <v>18</v>
       </c>
       <c r="B13" s="17">
-        <f t="shared" ref="B13:G13" si="1">B6+B7+B8+B10+B9+B11+B12</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" s="18">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D13" s="17">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E13" s="18">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="0"/>
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30521,11 +30480,11 @@
       </c>
       <c r="B18" s="10">
         <f>B13</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" s="23">
         <f>B18*30</f>
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30534,11 +30493,11 @@
       </c>
       <c r="B19" s="14">
         <f>C13</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C19" s="25">
         <f>B19*20</f>
-        <v>180</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30547,11 +30506,11 @@
       </c>
       <c r="B20" s="10">
         <f>D13</f>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C20" s="23">
         <f>B20*22</f>
-        <v>220</v>
+        <v>990</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30560,11 +30519,11 @@
       </c>
       <c r="B21" s="14">
         <f>E13</f>
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C21" s="25">
         <f>B21*25</f>
-        <v>325</v>
+        <v>1875</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>27</v>
@@ -30576,11 +30535,11 @@
       </c>
       <c r="B22" s="10">
         <f>F13</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22" s="23">
         <f>B22*15</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30589,11 +30548,11 @@
       </c>
       <c r="B23" s="14">
         <f>G13</f>
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C23" s="25">
         <f>B23*15</f>
-        <v>705</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30602,11 +30561,11 @@
       </c>
       <c r="B24" s="18">
         <f>B18+B19+B20+B21+B22+B23</f>
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C24" s="28">
         <f>C18+C19+C20+C21+C22+C23</f>
-        <v>1880</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -30652,189 +30611,105 @@
       <c r="A32" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
+        <f t="shared" ref="H32:H38" si="0">B32+C32+D32+E32+F32+G32</f>
         <v>0</v>
-      </c>
-      <c r="C32" s="11">
-        <v>0</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11">
-        <v>4</v>
-      </c>
-      <c r="F32" s="11">
-        <v>8</v>
-      </c>
-      <c r="G32" s="11">
-        <v>9</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" ref="H32:H38" si="2">B32+C32+D32+E32+F32+G32</f>
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="C33" s="11">
-        <v>5</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
-        <v>2</v>
-      </c>
-      <c r="F33" s="11">
-        <v>8</v>
-      </c>
-      <c r="G33" s="11">
-        <v>3</v>
-      </c>
-      <c r="H33" s="15">
-        <f t="shared" si="2"/>
-        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="11">
-        <v>5</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <v>8</v>
-      </c>
-      <c r="G34" s="11">
-        <v>6</v>
-      </c>
-      <c r="H34" s="11">
-        <f t="shared" si="2"/>
-        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11">
-        <v>2</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>10</v>
-      </c>
-      <c r="G35" s="11">
-        <v>5</v>
-      </c>
-      <c r="H35" s="15">
-        <f t="shared" si="2"/>
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>10</v>
-      </c>
-      <c r="G36" s="11">
-        <v>7</v>
-      </c>
-      <c r="H36" s="11">
-        <f t="shared" si="2"/>
-        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="C37" s="11">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11">
-        <v>3</v>
-      </c>
-      <c r="E37" s="11">
-        <v>3</v>
-      </c>
-      <c r="F37" s="11">
-        <v>8</v>
-      </c>
-      <c r="G37" s="11">
-        <v>4</v>
-      </c>
-      <c r="H37" s="15">
-        <f t="shared" si="2"/>
-        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="C38" s="11">
-        <v>0</v>
-      </c>
-      <c r="D38" s="11">
-        <v>3</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>8</v>
-      </c>
-      <c r="G38" s="11">
-        <v>7</v>
-      </c>
-      <c r="H38" s="11">
-        <f t="shared" si="2"/>
-        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30842,32 +30717,26 @@
         <v>18</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" ref="B39:G39" si="3">B32+B33+B34+B36+B35+B37+B38</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="3"/>
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" ref="H39" si="4">B39+C39+D39+E39+F39+G39</f>
-        <v>128</v>
+        <f t="shared" ref="H39" si="1">B39+C39+D39+E39+F39+G39</f>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30903,28 +30772,28 @@
         <v>23</v>
       </c>
       <c r="B44" s="10">
-        <f t="shared" ref="B44:B49" si="5">B18</f>
-        <v>5</v>
+        <f t="shared" ref="B44:B49" si="2">B18</f>
+        <v>10</v>
       </c>
       <c r="C44" s="39">
         <f>B$39-B44</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D44" s="39">
-        <f t="shared" ref="D44:D49" si="6">B44+C44</f>
-        <v>5</v>
+        <f t="shared" ref="D44:D49" si="3">B44+C44</f>
+        <v>9</v>
       </c>
       <c r="E44" s="23">
-        <f t="shared" ref="E44:E50" si="7">C18</f>
-        <v>150</v>
+        <f t="shared" ref="E44:E50" si="4">C18</f>
+        <v>300</v>
       </c>
       <c r="F44" s="23">
         <f>(C44*30)</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="G44" s="23">
         <f>(D44*30)</f>
-        <v>150</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30932,28 +30801,28 @@
         <v>24</v>
       </c>
       <c r="B45" s="14">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="C45" s="45">
         <f>C$39-B45</f>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D45" s="45">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="E45" s="25">
-        <f t="shared" si="7"/>
-        <v>180</v>
+        <f t="shared" si="4"/>
+        <v>380</v>
       </c>
       <c r="F45" s="25">
         <f>(C45*20)</f>
-        <v>-80</v>
+        <v>-40</v>
       </c>
       <c r="G45" s="25">
         <f>(D45*20)</f>
-        <v>100</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30961,28 +30830,28 @@
         <v>25</v>
       </c>
       <c r="B46" s="10">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="C46" s="39">
         <f>D$39-B46</f>
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="D46" s="39">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="E46" s="23">
-        <f t="shared" si="7"/>
-        <v>220</v>
+        <f t="shared" si="4"/>
+        <v>990</v>
       </c>
       <c r="F46" s="23">
         <f>(C46*22)</f>
-        <v>-44</v>
+        <v>154</v>
       </c>
       <c r="G46" s="23">
         <f>(D46*22)</f>
-        <v>176</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30990,28 +30859,28 @@
         <v>26</v>
       </c>
       <c r="B47" s="14">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="C47" s="45">
         <f>E$39-B47</f>
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="D47" s="45">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="E47" s="25">
-        <f t="shared" si="7"/>
-        <v>325</v>
+        <f t="shared" si="4"/>
+        <v>1875</v>
       </c>
       <c r="F47" s="25">
         <f>(C47*25)</f>
-        <v>-100</v>
+        <v>-250</v>
       </c>
       <c r="G47" s="25">
         <f>(D47*25)</f>
-        <v>225</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31019,28 +30888,28 @@
         <v>28</v>
       </c>
       <c r="B48" s="10">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="C48" s="39">
         <f>F$39-B48</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D48" s="39">
-        <f t="shared" si="6"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E48" s="23">
-        <f t="shared" si="7"/>
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F48" s="23">
         <f>(C48*15)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G48" s="23">
         <f>(D48*15)</f>
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31048,28 +30917,28 @@
         <v>29</v>
       </c>
       <c r="B49" s="14">
-        <f t="shared" si="5"/>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="C49" s="45">
         <f>G$39-B49</f>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D49" s="45">
-        <f t="shared" si="6"/>
-        <v>41</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="E49" s="25">
-        <f t="shared" si="7"/>
-        <v>705</v>
+        <f t="shared" si="4"/>
+        <v>270</v>
       </c>
       <c r="F49" s="23">
         <f>(C49*15)</f>
-        <v>-90</v>
+        <v>-60</v>
       </c>
       <c r="G49" s="25">
         <f>(D49*15)</f>
-        <v>615</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31078,27 +30947,27 @@
       </c>
       <c r="B50" s="18">
         <f>B44+B45+B46+B47+B48+B49</f>
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C50" s="40">
         <f>H39-B50</f>
-        <v>24</v>
+        <v>-10</v>
       </c>
       <c r="D50" s="40">
         <f>SUM(D44:D49)</f>
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E50" s="41">
-        <f t="shared" si="7"/>
-        <v>1880</v>
+        <f t="shared" si="4"/>
+        <v>3815</v>
       </c>
       <c r="F50" s="28">
         <f>SUM(F44:F49)</f>
-        <v>286</v>
+        <v>-226</v>
       </c>
       <c r="G50" s="28">
         <f>SUM(G44:G49)</f>
-        <v>2166</v>
+        <v>3589</v>
       </c>
     </row>
   </sheetData>
@@ -31114,8 +30983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31204,264 +31073,208 @@
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="11" t="e">
-        <f t="shared" ref="H6:H13" si="0">B6+C6+D6+E6+F6+G6</f>
-        <v>#REF!</v>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>11</v>
+      </c>
+      <c r="H6" s="11">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>17</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>9</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B9" s="15">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B10" s="11">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11">
+        <v>7</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>13</v>
+      </c>
+      <c r="G11" s="15">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>12</v>
+      </c>
+      <c r="G12" s="11">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="e">
-        <f t="shared" ref="B13:G13" si="1">B6+B7+B8+B10+B9+B11+B12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="19" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B13" s="17">
+        <v>20</v>
+      </c>
+      <c r="C13" s="18">
+        <v>5</v>
+      </c>
+      <c r="D13" s="17">
+        <v>62</v>
+      </c>
+      <c r="E13" s="18">
+        <v>28</v>
+      </c>
+      <c r="F13" s="17">
+        <v>44</v>
+      </c>
+      <c r="G13" s="18">
+        <v>20</v>
+      </c>
+      <c r="H13" s="19">
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31484,52 +31297,52 @@
       <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="e">
+      <c r="B18" s="10">
         <f>B13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" s="23" t="e">
+        <v>20</v>
+      </c>
+      <c r="C18" s="23">
         <f>B18*30</f>
-        <v>#REF!</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14" t="e">
+      <c r="B19" s="14">
         <f>C13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="25" t="e">
+        <v>5</v>
+      </c>
+      <c r="C19" s="25">
         <f>B19*20</f>
-        <v>#REF!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="e">
+      <c r="B20" s="10">
         <f>D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="23" t="e">
+        <v>62</v>
+      </c>
+      <c r="C20" s="23">
         <f>B20*22</f>
-        <v>#REF!</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="14" t="e">
+      <c r="B21" s="14">
         <f>E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="25" t="e">
+        <v>28</v>
+      </c>
+      <c r="C21" s="25">
         <f>B21*25</f>
-        <v>#REF!</v>
+        <v>700</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>27</v>
@@ -31539,39 +31352,39 @@
       <c r="A22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10" t="e">
+      <c r="B22" s="10">
         <f>F13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="23" t="e">
+        <v>44</v>
+      </c>
+      <c r="C22" s="23">
         <f>B22*15</f>
-        <v>#REF!</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14" t="e">
+      <c r="B23" s="14">
         <f>G13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="25" t="e">
+        <v>20</v>
+      </c>
+      <c r="C23" s="25">
         <f>B23*15</f>
-        <v>#REF!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="18" t="e">
+      <c r="B24" s="18">
         <f>B18+B19+B20+B21+B22+B23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="28" t="e">
+        <v>179</v>
+      </c>
+      <c r="C24" s="28">
         <f>C18+C19+C20+C21+C22+C23</f>
-        <v>#REF!</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -31624,7 +31437,7 @@
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33">
-        <f t="shared" ref="H32:H39" si="2">B32+C32+D32+E32+F32+G32</f>
+        <f t="shared" ref="H32:H39" si="0">B32+C32+D32+E32+F32+G32</f>
         <v>0</v>
       </c>
     </row>
@@ -31639,7 +31452,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="36"/>
       <c r="H33" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -31654,7 +31467,7 @@
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -31669,7 +31482,7 @@
       <c r="F35" s="35"/>
       <c r="G35" s="36"/>
       <c r="H35" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -31684,7 +31497,7 @@
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -31699,7 +31512,7 @@
       <c r="F37" s="35"/>
       <c r="G37" s="36"/>
       <c r="H37" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -31714,7 +31527,7 @@
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -31723,32 +31536,26 @@
         <v>18</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" ref="B39:G39" si="3">B32+B33+B34+B36+B35+B37+B38</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31783,203 +31590,203 @@
       <c r="A44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="10" t="e">
-        <f t="shared" ref="B44:B49" si="4">B18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C44" s="39" t="e">
+      <c r="B44" s="10">
+        <f>B18</f>
+        <v>20</v>
+      </c>
+      <c r="C44" s="39">
         <f>B$39-B44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D44" s="39" t="e">
-        <f t="shared" ref="D44:D49" si="5">B44+C44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="23" t="e">
-        <f t="shared" ref="E44:E50" si="6">C18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F44" s="23" t="e">
+        <v>-8</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" ref="D44:D49" si="1">B44+C44</f>
+        <v>12</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" ref="E44:E50" si="2">C18</f>
+        <v>600</v>
+      </c>
+      <c r="F44" s="23">
         <f>(C44*30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G44" s="23" t="e">
+        <v>-240</v>
+      </c>
+      <c r="G44" s="23">
         <f>(D44*30)</f>
-        <v>#REF!</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C45" s="45" t="e">
+      <c r="B45" s="14">
+        <f t="shared" ref="B44:B49" si="3">B19</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="45">
         <f>C$39-B45</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F45" s="25" t="e">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="45">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F45" s="25">
         <f>(C45*20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G45" s="25" t="e">
+        <v>-20</v>
+      </c>
+      <c r="G45" s="25">
         <f>(D45*20)</f>
-        <v>#REF!</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="39" t="e">
+      <c r="B46" s="10">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C46" s="39">
         <f>D$39-B46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F46" s="23" t="e">
+        <v>36</v>
+      </c>
+      <c r="D46" s="39">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" si="2"/>
+        <v>1364</v>
+      </c>
+      <c r="F46" s="23">
         <f>(C46*22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" s="23" t="e">
+        <v>792</v>
+      </c>
+      <c r="G46" s="23">
         <f>(D46*22)</f>
-        <v>#REF!</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C47" s="45" t="e">
+      <c r="B47" s="14">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="C47" s="45">
         <f>E$39-B47</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D47" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F47" s="25" t="e">
+        <v>-15</v>
+      </c>
+      <c r="D47" s="45">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E47" s="25">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="F47" s="25">
         <f>(C47*25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G47" s="25" t="e">
+        <v>-375</v>
+      </c>
+      <c r="G47" s="25">
         <f>(D47*25)</f>
-        <v>#REF!</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C48" s="39" t="e">
+      <c r="B48" s="10">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="39">
         <f>F$39-B48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D48" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F48" s="23" t="e">
+        <v>-20</v>
+      </c>
+      <c r="D48" s="39">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E48" s="23">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+      <c r="F48" s="23">
         <f>(C48*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G48" s="23" t="e">
+        <v>-300</v>
+      </c>
+      <c r="G48" s="23">
         <f>(D48*15)</f>
-        <v>#REF!</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C49" s="45" t="e">
+      <c r="B49" s="14">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C49" s="45">
         <f>G$39-B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D49" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F49" s="25" t="e">
+        <v>-2</v>
+      </c>
+      <c r="D49" s="45">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E49" s="25">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="F49" s="25">
         <f>(C49*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G49" s="25" t="e">
+        <v>-30</v>
+      </c>
+      <c r="G49" s="25">
         <f>(D49*15)</f>
-        <v>#REF!</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="18" t="e">
+      <c r="B50" s="18">
         <f>B44+B45+B46+B47+B48+B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C50" s="40" t="e">
+        <v>179</v>
+      </c>
+      <c r="C50" s="40">
         <f>H39-B50</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="40" t="e">
+        <v>-10</v>
+      </c>
+      <c r="D50" s="40">
         <f>SUM(D44:D49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" s="41" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F50" s="28" t="e">
+        <v>169</v>
+      </c>
+      <c r="E50" s="41">
+        <f t="shared" si="2"/>
+        <v>3724</v>
+      </c>
+      <c r="F50" s="28">
         <f>SUM(F44:F49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G50" s="28" t="e">
+        <v>-173</v>
+      </c>
+      <c r="G50" s="28">
         <f>SUM(G44:G49)</f>
-        <v>#REF!</v>
+        <v>3551</v>
       </c>
     </row>
   </sheetData>
@@ -31995,8 +31802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32070,264 +31877,208 @@
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="11" t="e">
-        <f t="shared" ref="H6:H13" si="0">B6+C6+D6+E6+F6+G6</f>
-        <v>#REF!</v>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>3</v>
+      </c>
+      <c r="H7" s="15">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>10</v>
+      </c>
+      <c r="G9" s="15">
+        <v>5</v>
+      </c>
+      <c r="H9" s="15">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>5</v>
+      </c>
+      <c r="E11" s="15">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>6</v>
+      </c>
+      <c r="H11" s="15">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7</v>
+      </c>
+      <c r="H12" s="11">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="e">
-        <f t="shared" ref="B13:G13" si="1">B6+B7+B8+B10+B9+B11+B12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="19" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18">
+        <v>9</v>
+      </c>
+      <c r="D13" s="17">
+        <v>10</v>
+      </c>
+      <c r="E13" s="18">
+        <v>13</v>
+      </c>
+      <c r="F13" s="17">
+        <v>20</v>
+      </c>
+      <c r="G13" s="18">
+        <v>47</v>
+      </c>
+      <c r="H13" s="19">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32350,52 +32101,52 @@
       <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="e">
+      <c r="B18" s="10">
         <f>B13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" s="23" t="e">
+        <v>5</v>
+      </c>
+      <c r="C18" s="23">
         <f>B18*30</f>
-        <v>#REF!</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14" t="e">
+      <c r="B19" s="14">
         <f>C13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="25" t="e">
+        <v>9</v>
+      </c>
+      <c r="C19" s="25">
         <f>B19*20</f>
-        <v>#REF!</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="e">
+      <c r="B20" s="10">
         <f>D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="23" t="e">
+        <v>10</v>
+      </c>
+      <c r="C20" s="23">
         <f>B20*22</f>
-        <v>#REF!</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="14" t="e">
+      <c r="B21" s="14">
         <f>E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="25" t="e">
+        <v>13</v>
+      </c>
+      <c r="C21" s="25">
         <f>B21*25</f>
-        <v>#REF!</v>
+        <v>325</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>27</v>
@@ -32405,39 +32156,39 @@
       <c r="A22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10" t="e">
+      <c r="B22" s="10">
         <f>F13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="23" t="e">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
         <f>B22*15</f>
-        <v>#REF!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14" t="e">
+      <c r="B23" s="14">
         <f>G13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="25" t="e">
+        <v>47</v>
+      </c>
+      <c r="C23" s="25">
         <f>B23*15</f>
-        <v>#REF!</v>
+        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="18" t="e">
+      <c r="B24" s="18">
         <f>B18+B19+B20+B21+B22+B23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="28" t="e">
+        <v>104</v>
+      </c>
+      <c r="C24" s="28">
         <f>C18+C19+C20+C21+C22+C23</f>
-        <v>#REF!</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -32490,7 +32241,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="33">
-        <f t="shared" ref="H32:H39" si="2">B32+C32+D32+E32+F32+G32</f>
+        <f t="shared" ref="H32:H39" si="0">B32+C32+D32+E32+F32+G32</f>
         <v>0</v>
       </c>
     </row>
@@ -32505,7 +32256,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
       <c r="H33" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -32520,7 +32271,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -32535,7 +32286,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
       <c r="H35" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -32550,7 +32301,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -32565,7 +32316,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
       <c r="H37" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -32580,7 +32331,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="H38" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -32589,32 +32340,26 @@
         <v>18</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" ref="B39:G39" si="3">B32+B33+B34+B36+B35+B37+B38</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32649,203 +32394,203 @@
       <c r="A44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="10" t="e">
-        <f t="shared" ref="B44:B49" si="4">B18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C44" s="39" t="e">
+      <c r="B44" s="10">
+        <f t="shared" ref="B44:B49" si="1">B18</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="39">
         <f>B$39-B44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D44" s="39" t="e">
-        <f t="shared" ref="D44:D49" si="5">B44+C44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="23" t="e">
-        <f t="shared" ref="E44:E50" si="6">C18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F44" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" ref="D44:D49" si="2">B44+C44</f>
+        <v>5</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" ref="E44:E50" si="3">C18</f>
+        <v>150</v>
+      </c>
+      <c r="F44" s="23">
         <f>(C44*30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G44" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
         <f>(D44*30)</f>
-        <v>#REF!</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C45" s="45" t="e">
+      <c r="B45" s="14">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C45" s="45">
         <f>C$39-B45</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F45" s="25" t="e">
+        <v>-4</v>
+      </c>
+      <c r="D45" s="45">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="F45" s="25">
         <f>(C45*20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G45" s="25" t="e">
+        <v>-80</v>
+      </c>
+      <c r="G45" s="25">
         <f>(D45*20)</f>
-        <v>#REF!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="39" t="e">
+      <c r="B46" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C46" s="39">
         <f>D$39-B46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F46" s="23" t="e">
+        <v>-2</v>
+      </c>
+      <c r="D46" s="39">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="F46" s="23">
         <f>(C46*22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" s="23" t="e">
+        <v>-44</v>
+      </c>
+      <c r="G46" s="23">
         <f>(D46*22)</f>
-        <v>#REF!</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C47" s="45" t="e">
+      <c r="B47" s="14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C47" s="45">
         <f>E$39-B47</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D47" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F47" s="25" t="e">
+        <v>-4</v>
+      </c>
+      <c r="D47" s="45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E47" s="25">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="F47" s="25">
         <f>(C47*25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G47" s="25" t="e">
+        <v>-100</v>
+      </c>
+      <c r="G47" s="25">
         <f>(D47*25)</f>
-        <v>#REF!</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C48" s="39" t="e">
+      <c r="B48" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C48" s="39">
         <f>F$39-B48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D48" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F48" s="23" t="e">
+        <v>40</v>
+      </c>
+      <c r="D48" s="39">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E48" s="23">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="F48" s="23">
         <f>(C48*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G48" s="23" t="e">
+        <v>600</v>
+      </c>
+      <c r="G48" s="23">
         <f>(D48*15)</f>
-        <v>#REF!</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C49" s="45" t="e">
+      <c r="B49" s="14">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="45">
         <f>G$39-B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D49" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F49" s="25" t="e">
+        <v>-6</v>
+      </c>
+      <c r="D49" s="45">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E49" s="25">
+        <f t="shared" si="3"/>
+        <v>705</v>
+      </c>
+      <c r="F49" s="25">
         <f>(C49*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G49" s="25" t="e">
+        <v>-90</v>
+      </c>
+      <c r="G49" s="25">
         <f>(D49*15)</f>
-        <v>#REF!</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="18" t="e">
+      <c r="B50" s="18">
         <f>B44+B45+B46+B47+B48+B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C50" s="40" t="e">
+        <v>104</v>
+      </c>
+      <c r="C50" s="40">
         <f>H39-B50</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="40" t="e">
+        <v>24</v>
+      </c>
+      <c r="D50" s="40">
         <f>SUM(D44:D49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" s="41" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F50" s="28" t="e">
+        <v>128</v>
+      </c>
+      <c r="E50" s="41">
+        <f t="shared" si="3"/>
+        <v>1880</v>
+      </c>
+      <c r="F50" s="28">
         <f>SUM(F44:F49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G50" s="28" t="e">
+        <v>286</v>
+      </c>
+      <c r="G50" s="28">
         <f>SUM(G44:G49)</f>
-        <v>#REF!</v>
+        <v>2166</v>
       </c>
     </row>
   </sheetData>
@@ -32861,8 +32606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33660,8 +33405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33736,264 +33481,208 @@
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="11" t="e">
-        <f t="shared" ref="H6:H13" si="0">B6+C6+D6+E6+F6+G6</f>
-        <v>#REF!</v>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>11</v>
+      </c>
+      <c r="H6" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>9</v>
+      </c>
+      <c r="G7" s="15">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>5</v>
+      </c>
+      <c r="H9" s="15">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B11" s="15">
+        <v>10</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>4</v>
+      </c>
+      <c r="G11" s="15">
+        <v>2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="e">
-        <f t="shared" ref="B13:G13" si="1">B6+B7+B8+B10+B9+B11+B12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="19" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="18">
+        <v>15</v>
+      </c>
+      <c r="D13" s="17">
+        <v>7</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <v>22</v>
+      </c>
+      <c r="G13" s="18">
+        <v>55</v>
+      </c>
+      <c r="H13" s="19">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34016,52 +33705,52 @@
       <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="e">
+      <c r="B18" s="10">
         <f>B13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" s="23" t="e">
+        <v>10</v>
+      </c>
+      <c r="C18" s="23">
         <f>B18*30</f>
-        <v>#REF!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14" t="e">
+      <c r="B19" s="14">
         <f>C13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="25" t="e">
+        <v>15</v>
+      </c>
+      <c r="C19" s="25">
         <f>B19*20</f>
-        <v>#REF!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="e">
+      <c r="B20" s="10">
         <f>D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="23" t="e">
+        <v>7</v>
+      </c>
+      <c r="C20" s="23">
         <f>B20*22</f>
-        <v>#REF!</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="14" t="e">
+      <c r="B21" s="14">
         <f>E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
         <f>B21*25</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>27</v>
@@ -34071,39 +33760,39 @@
       <c r="A22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10" t="e">
+      <c r="B22" s="10">
         <f>F13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="23" t="e">
+        <v>22</v>
+      </c>
+      <c r="C22" s="23">
         <f>B22*15</f>
-        <v>#REF!</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14" t="e">
+      <c r="B23" s="14">
         <f>G13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="25" t="e">
+        <v>55</v>
+      </c>
+      <c r="C23" s="25">
         <f>B23*15</f>
-        <v>#REF!</v>
+        <v>825</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="18" t="e">
+      <c r="B24" s="18">
         <f>B18+B19+B20+B21+B22+B23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="28" t="e">
+        <v>109</v>
+      </c>
+      <c r="C24" s="28">
         <f>C18+C19+C20+C21+C22+C23</f>
-        <v>#REF!</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -34156,7 +33845,7 @@
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33">
-        <f t="shared" ref="H32:H39" si="2">B32+C32+D32+E32+F32+G32</f>
+        <f t="shared" ref="H32:H39" si="0">B32+C32+D32+E32+F32+G32</f>
         <v>0</v>
       </c>
     </row>
@@ -34171,7 +33860,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="36"/>
       <c r="H33" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34186,7 +33875,7 @@
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34201,7 +33890,7 @@
       <c r="F35" s="35"/>
       <c r="G35" s="36"/>
       <c r="H35" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34216,7 +33905,7 @@
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34231,7 +33920,7 @@
       <c r="F37" s="35"/>
       <c r="G37" s="36"/>
       <c r="H37" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34246,7 +33935,7 @@
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34255,32 +33944,26 @@
         <v>18</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" ref="B39:G39" si="3">B32+B33+B34+B36+B35+B37+B38</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34315,203 +33998,203 @@
       <c r="A44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="10" t="e">
-        <f t="shared" ref="B44:B49" si="4">B18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C44" s="39" t="e">
+      <c r="B44" s="10">
+        <f t="shared" ref="B44:B49" si="1">B18</f>
+        <v>10</v>
+      </c>
+      <c r="C44" s="39">
         <f>B$39-B44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D44" s="39" t="e">
-        <f t="shared" ref="D44:D49" si="5">B44+C44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="23" t="e">
-        <f t="shared" ref="E44:E50" si="6">C18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F44" s="23" t="e">
+        <v>-3</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" ref="D44:D49" si="2">B44+C44</f>
+        <v>7</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" ref="E44:E50" si="3">C18</f>
+        <v>300</v>
+      </c>
+      <c r="F44" s="23">
         <f>(C44*30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G44" s="23" t="e">
+        <v>-90</v>
+      </c>
+      <c r="G44" s="23">
         <f>(D44*30)</f>
-        <v>#REF!</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C45" s="45" t="e">
+      <c r="B45" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C45" s="45">
         <f>C$39-B45</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F45" s="25" t="e">
+        <v>-5</v>
+      </c>
+      <c r="D45" s="45">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="F45" s="25">
         <f>(C45*20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G45" s="25" t="e">
+        <v>-100</v>
+      </c>
+      <c r="G45" s="25">
         <f>(D45*20)</f>
-        <v>#REF!</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="39" t="e">
+      <c r="B46" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C46" s="39">
         <f>D$39-B46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F46" s="23" t="e">
+        <v>-4</v>
+      </c>
+      <c r="D46" s="39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="F46" s="23">
         <f>(C46*22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" s="23" t="e">
+        <v>-88</v>
+      </c>
+      <c r="G46" s="23">
         <f>(D46*22)</f>
-        <v>#REF!</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C47" s="45" t="e">
+      <c r="B47" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="45">
         <f>E$39-B47</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D47" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F47" s="25" t="e">
+        <v>5</v>
+      </c>
+      <c r="D47" s="45">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E47" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="25">
         <f>(C47*25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G47" s="25" t="e">
+        <v>125</v>
+      </c>
+      <c r="G47" s="25">
         <f>(D47*25)</f>
-        <v>#REF!</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C48" s="39" t="e">
+      <c r="B48" s="10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C48" s="39">
         <f>F$39-B48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D48" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F48" s="23" t="e">
+        <v>7</v>
+      </c>
+      <c r="D48" s="39">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E48" s="23">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="F48" s="23">
         <f>(C48*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G48" s="23" t="e">
+        <v>105</v>
+      </c>
+      <c r="G48" s="23">
         <f>(D48*15)</f>
-        <v>#REF!</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C49" s="45" t="e">
+      <c r="B49" s="14">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C49" s="45">
         <f>G$39-B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D49" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" s="25" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F49" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="D49" s="45">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E49" s="25">
+        <f t="shared" si="3"/>
+        <v>825</v>
+      </c>
+      <c r="F49" s="25">
         <f>(C49*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G49" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="G49" s="25">
         <f>(D49*15)</f>
-        <v>#REF!</v>
+        <v>825</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="18" t="e">
+      <c r="B50" s="18">
         <f>B44+B45+B46+B47+B48+B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C50" s="40" t="e">
+        <v>109</v>
+      </c>
+      <c r="C50" s="40">
         <f>H39-B50</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="40" t="e">
+        <v>0</v>
+      </c>
+      <c r="D50" s="40">
         <f>SUM(D44:D49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" s="41" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F50" s="28" t="e">
+        <v>109</v>
+      </c>
+      <c r="E50" s="41">
+        <f t="shared" si="3"/>
+        <v>1909</v>
+      </c>
+      <c r="F50" s="28">
         <f>SUM(F44:F49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G50" s="28" t="e">
+        <v>-48</v>
+      </c>
+      <c r="G50" s="28">
         <f>SUM(G44:G49)</f>
-        <v>#REF!</v>
+        <v>1861</v>
       </c>
     </row>
   </sheetData>
@@ -34527,18 +34210,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="31.140625" customWidth="1"/>
   </cols>
@@ -34589,264 +34272,264 @@
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10" t="e">
+      <c r="B6" s="10">
         <f>'Fase AD'!B6+'Fase PA'!B6+'Fase PDROB'!B6+'Fase PDRD'!B6+'Fase PDROP'!B6+'Fase V'!B6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="10" t="e">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
         <f>'Fase AD'!C6+'Fase PA'!C6+'Fase PDROB'!C6+'Fase PDRD'!C6+'Fase PDROP'!C6+'Fase V'!C6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="10" t="e">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10">
         <f>'Fase AD'!D6+'Fase PA'!D6+'Fase PDROB'!D6+'Fase PDRD'!D6+'Fase PDROP'!D6+'Fase V'!D6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="10" t="e">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10">
         <f>'Fase AD'!E6+'Fase PA'!E6+'Fase PDROB'!E6+'Fase PDRD'!E6+'Fase PDROP'!E6+'Fase V'!E6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="10" t="e">
+        <v>28</v>
+      </c>
+      <c r="F6" s="10">
         <f>'Fase AD'!F6+'Fase PA'!F6+'Fase PDROB'!F6+'Fase PDRD'!F6+'Fase PDROP'!F6+'Fase V'!F6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="10" t="e">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10">
         <f>'Fase AD'!G6+'Fase PA'!G6+'Fase PDROB'!G6+'Fase PDRD'!G6+'Fase PDROP'!G6+'Fase V'!G6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="11" t="e">
+        <v>41</v>
+      </c>
+      <c r="H6" s="11">
         <f t="shared" ref="H6:H13" si="0">B6+C6+D6+E6+F6+G6</f>
-        <v>#REF!</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="e">
+      <c r="B7" s="14">
         <f>'Fase AD'!B7+'Fase PA'!B7+'Fase PDROB'!B7+'Fase PDRD'!B7+'Fase PDROP'!B7+'Fase V'!B7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="14" t="e">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14">
         <f>'Fase AD'!C7+'Fase PA'!C7+'Fase PDROB'!C7+'Fase PDRD'!C7+'Fase PDROP'!C7+'Fase V'!C7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="14" t="e">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14">
         <f>'Fase AD'!D7+'Fase PA'!D7+'Fase PDROB'!D7+'Fase PDRD'!D7+'Fase PDROP'!D7+'Fase V'!D7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="14" t="e">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14">
         <f>'Fase AD'!E7+'Fase PA'!E7+'Fase PDROB'!E7+'Fase PDRD'!E7+'Fase PDROP'!E7+'Fase V'!E7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="14" t="e">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14">
         <f>'Fase AD'!F7+'Fase PA'!F7+'Fase PDROB'!F7+'Fase PDRD'!F7+'Fase PDROP'!F7+'Fase V'!F7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="14" t="e">
+        <v>20</v>
+      </c>
+      <c r="G7" s="14">
         <f>'Fase AD'!G7+'Fase PA'!G7+'Fase PDROB'!G7+'Fase PDRD'!G7+'Fase PDROP'!G7+'Fase V'!G7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="15" t="e">
+        <v>21</v>
+      </c>
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="e">
+      <c r="B8" s="10">
         <f>'Fase AD'!B8+'Fase PA'!B8+'Fase PDROB'!B8+'Fase PDRD'!B8+'Fase PDROP'!B8+'Fase V'!B8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="10" t="e">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
         <f>'Fase AD'!C8+'Fase PA'!C8+'Fase PDROB'!C8+'Fase PDRD'!C8+'Fase PDROP'!C8+'Fase V'!C8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="10" t="e">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
         <f>'Fase AD'!D8+'Fase PA'!D8+'Fase PDROB'!D8+'Fase PDRD'!D8+'Fase PDROP'!D8+'Fase V'!D8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="10" t="e">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10">
         <f>'Fase AD'!E8+'Fase PA'!E8+'Fase PDROB'!E8+'Fase PDRD'!E8+'Fase PDROP'!E8+'Fase V'!E8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="10" t="e">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10">
         <f>'Fase AD'!F8+'Fase PA'!F8+'Fase PDROB'!F8+'Fase PDRD'!F8+'Fase PDROP'!F8+'Fase V'!F8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="10" t="e">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10">
         <f>'Fase AD'!G8+'Fase PA'!G8+'Fase PDROB'!G8+'Fase PDRD'!G8+'Fase PDROP'!G8+'Fase V'!G8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="11" t="e">
+        <v>30</v>
+      </c>
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="e">
+      <c r="B9" s="14">
         <f>'Fase AD'!B9+'Fase PA'!B9+'Fase PDROB'!B9+'Fase PDRD'!B9+'Fase PDROP'!B9+'Fase V'!B9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="14" t="e">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14">
         <f>'Fase AD'!C9+'Fase PA'!C9+'Fase PDROB'!C9+'Fase PDRD'!C9+'Fase PDROP'!C9+'Fase V'!C9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="14" t="e">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
         <f>'Fase AD'!D9+'Fase PA'!D9+'Fase PDROB'!D9+'Fase PDRD'!D9+'Fase PDROP'!D9+'Fase V'!D9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="14" t="e">
+        <v>19</v>
+      </c>
+      <c r="E9" s="14">
         <f>'Fase AD'!E9+'Fase PA'!E9+'Fase PDROB'!E9+'Fase PDRD'!E9+'Fase PDROP'!E9+'Fase V'!E9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="14" t="e">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14">
         <f>'Fase AD'!F9+'Fase PA'!F9+'Fase PDROB'!F9+'Fase PDRD'!F9+'Fase PDROP'!F9+'Fase V'!F9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="14" t="e">
+        <v>13</v>
+      </c>
+      <c r="G9" s="14">
         <f>'Fase AD'!G9+'Fase PA'!G9+'Fase PDROB'!G9+'Fase PDRD'!G9+'Fase PDROP'!G9+'Fase V'!G9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="15" t="e">
+        <v>21</v>
+      </c>
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="e">
+      <c r="B10" s="10">
         <f>'Fase AD'!B10+'Fase PA'!B10+'Fase PDROB'!B10+'Fase PDRD'!B10+'Fase PDROP'!B10+'Fase V'!B10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="10" t="e">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
         <f>'Fase AD'!C10+'Fase PA'!C10+'Fase PDROB'!C10+'Fase PDRD'!C10+'Fase PDROP'!C10+'Fase V'!C10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="10" t="e">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10">
         <f>'Fase AD'!D10+'Fase PA'!D10+'Fase PDROB'!D10+'Fase PDRD'!D10+'Fase PDROP'!D10+'Fase V'!D10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="10" t="e">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10">
         <f>'Fase AD'!E10+'Fase PA'!E10+'Fase PDROB'!E10+'Fase PDRD'!E10+'Fase PDROP'!E10+'Fase V'!E10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="10" t="e">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10">
         <f>'Fase AD'!F10+'Fase PA'!F10+'Fase PDROB'!F10+'Fase PDRD'!F10+'Fase PDROP'!F10+'Fase V'!F10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="10" t="e">
+        <v>15</v>
+      </c>
+      <c r="G10" s="10">
         <f>'Fase AD'!G10+'Fase PA'!G10+'Fase PDROB'!G10+'Fase PDRD'!G10+'Fase PDROP'!G10+'Fase V'!G10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="11" t="e">
+        <v>35</v>
+      </c>
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14" t="e">
+      <c r="B11" s="14">
         <f>'Fase AD'!B11+'Fase PA'!B11+'Fase PDROB'!B11+'Fase PDRD'!B11+'Fase PDROP'!B11+'Fase V'!B11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="14" t="e">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14">
         <f>'Fase AD'!C11+'Fase PA'!C11+'Fase PDROB'!C11+'Fase PDRD'!C11+'Fase PDROP'!C11+'Fase V'!C11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="14" t="e">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14">
         <f>'Fase AD'!D11+'Fase PA'!D11+'Fase PDROB'!D11+'Fase PDRD'!D11+'Fase PDROP'!D11+'Fase V'!D11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="14" t="e">
+        <v>21</v>
+      </c>
+      <c r="E11" s="14">
         <f>'Fase AD'!E11+'Fase PA'!E11+'Fase PDROB'!E11+'Fase PDRD'!E11+'Fase PDROP'!E11+'Fase V'!E11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="14" t="e">
+        <v>19</v>
+      </c>
+      <c r="F11" s="14">
         <f>'Fase AD'!F11+'Fase PA'!F11+'Fase PDROB'!F11+'Fase PDRD'!F11+'Fase PDROP'!F11+'Fase V'!F11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="14" t="e">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14">
         <f>'Fase AD'!G11+'Fase PA'!G11+'Fase PDROB'!G11+'Fase PDRD'!G11+'Fase PDROP'!G11+'Fase V'!G11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="15" t="e">
+        <v>25</v>
+      </c>
+      <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="e">
+      <c r="B12" s="10">
         <f>'Fase AD'!B12+'Fase PA'!B12+'Fase PDROB'!B12+'Fase PDRD'!B12+'Fase PDROP'!B12+'Fase V'!B12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="10" t="e">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10">
         <f>'Fase AD'!C12+'Fase PA'!C12+'Fase PDROB'!C12+'Fase PDRD'!C12+'Fase PDROP'!C12+'Fase V'!C12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="10" t="e">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10">
         <f>'Fase AD'!D12+'Fase PA'!D12+'Fase PDROB'!D12+'Fase PDRD'!D12+'Fase PDROP'!D12+'Fase V'!D12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="10" t="e">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10">
         <f>'Fase AD'!E12+'Fase PA'!E12+'Fase PDROB'!E12+'Fase PDRD'!E12+'Fase PDROP'!E12+'Fase V'!E12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="10" t="e">
+        <v>25</v>
+      </c>
+      <c r="F12" s="10">
         <f>'Fase AD'!F12+'Fase PA'!F12+'Fase PDROB'!F12+'Fase PDRD'!F12+'Fase PDROP'!F12+'Fase V'!F12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="10" t="e">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10">
         <f>'Fase AD'!G12+'Fase PA'!G12+'Fase PDROB'!G12+'Fase PDRD'!G12+'Fase PDROP'!G12+'Fase V'!G12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="11" t="e">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="e">
+      <c r="B13" s="17">
         <f t="shared" ref="B13:G13" si="1">B6+B7+B8+B10+B9+B11+B12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="18" t="e">
+        <v>63</v>
+      </c>
+      <c r="C13" s="18">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="17" t="e">
+        <v>83</v>
+      </c>
+      <c r="D13" s="17">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="18" t="e">
+        <v>140</v>
+      </c>
+      <c r="E13" s="18">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="17" t="e">
+        <v>156</v>
+      </c>
+      <c r="F13" s="17">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="18" t="e">
+        <v>94</v>
+      </c>
+      <c r="G13" s="18">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="19" t="e">
+        <v>199</v>
+      </c>
+      <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34869,52 +34552,52 @@
       <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="e">
+      <c r="B18" s="10">
         <f>B13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" s="23" t="e">
+        <v>63</v>
+      </c>
+      <c r="C18" s="23">
         <f>B18*30</f>
-        <v>#REF!</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14" t="e">
+      <c r="B19" s="14">
         <f>C13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="25" t="e">
+        <v>83</v>
+      </c>
+      <c r="C19" s="25">
         <f>B19*20</f>
-        <v>#REF!</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="e">
+      <c r="B20" s="10">
         <f>D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="23" t="e">
+        <v>140</v>
+      </c>
+      <c r="C20" s="23">
         <f>B20*22</f>
-        <v>#REF!</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="14" t="e">
+      <c r="B21" s="14">
         <f>E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="25" t="e">
+        <v>156</v>
+      </c>
+      <c r="C21" s="25">
         <f>B21*25</f>
-        <v>#REF!</v>
+        <v>3900</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>27</v>
@@ -34924,39 +34607,39 @@
       <c r="A22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10" t="e">
+      <c r="B22" s="10">
         <f>F13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="23" t="e">
+        <v>94</v>
+      </c>
+      <c r="C22" s="23">
         <f>B22*15</f>
-        <v>#REF!</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14" t="e">
+      <c r="B23" s="14">
         <f>G13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="25" t="e">
+        <v>199</v>
+      </c>
+      <c r="C23" s="25">
         <f>B23*15</f>
-        <v>#REF!</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="18" t="e">
+      <c r="B24" s="18">
         <f>B18+B19+B20+B21+B22+B23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="28" t="e">
+        <v>735</v>
+      </c>
+      <c r="C24" s="28">
         <f>C18+C19+C20+C21+C22+C23</f>
-        <v>#REF!</v>
+        <v>14925</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -35003,32 +34686,26 @@
         <v>11</v>
       </c>
       <c r="B32" s="32">
-        <f>'Fase AD'!B32+'Fase PA'!B32+'Fase PDROB'!B32+'Fase PDRD'!B32+'Fase PDROP'!B32+'Fase V'!B32</f>
         <v>10</v>
       </c>
       <c r="C32" s="32">
-        <f>'Fase AD'!C32+'Fase PA'!C32+'Fase PDROB'!C32+'Fase PDRD'!C32+'Fase PDROP'!C32+'Fase V'!C32</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D32" s="32">
-        <f>'Fase AD'!D32+'Fase PA'!D32+'Fase PDROB'!D32+'Fase PDRD'!D32+'Fase PDROP'!D32+'Fase V'!D32</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E32" s="32">
-        <f>'Fase AD'!E32+'Fase PA'!E32+'Fase PDROB'!E32+'Fase PDRD'!E32+'Fase PDROP'!E32+'Fase V'!E32</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F32" s="32">
-        <f>'Fase AD'!F32+'Fase PA'!F32+'Fase PDROB'!F32+'Fase PDRD'!F32+'Fase PDROP'!F32+'Fase V'!F32</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G32" s="32">
-        <f>'Fase AD'!G32+'Fase PA'!G32+'Fase PDROB'!G32+'Fase PDRD'!G32+'Fase PDROP'!G32+'Fase V'!G32</f>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="H32" s="33">
-        <f t="shared" ref="H32:H39" si="2">B32+C32+D32+E32+F32+G32</f>
-        <v>34</v>
+        <f t="shared" ref="H32:H37" si="2">SUM(B32:G32)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35036,32 +34713,26 @@
         <v>12</v>
       </c>
       <c r="B33" s="36">
-        <f>'Fase AD'!B33+'Fase PA'!B33+'Fase PDROB'!B33+'Fase PDRD'!B33+'Fase PDROP'!B33+'Fase V'!B33</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C33" s="36">
-        <f>'Fase AD'!C33+'Fase PA'!C33+'Fase PDROB'!C33+'Fase PDRD'!C33+'Fase PDROP'!C33+'Fase V'!C33</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D33" s="36">
-        <f>'Fase AD'!D33+'Fase PA'!D33+'Fase PDROB'!D33+'Fase PDRD'!D33+'Fase PDROP'!D33+'Fase V'!D33</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E33" s="36">
-        <f>'Fase AD'!E33+'Fase PA'!E33+'Fase PDROB'!E33+'Fase PDRD'!E33+'Fase PDROP'!E33+'Fase V'!E33</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F33" s="36">
-        <f>'Fase AD'!F33+'Fase PA'!F33+'Fase PDROB'!F33+'Fase PDRD'!F33+'Fase PDROP'!F33+'Fase V'!F33</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G33" s="36">
-        <f>'Fase AD'!G33+'Fase PA'!G33+'Fase PDROB'!G33+'Fase PDRD'!G33+'Fase PDROP'!G33+'Fase V'!G33</f>
-        <v>8</v>
-      </c>
-      <c r="H33" s="37">
+        <v>21</v>
+      </c>
+      <c r="H33" s="33">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35069,32 +34740,26 @@
         <v>13</v>
       </c>
       <c r="B34" s="32">
-        <f>'Fase AD'!B34+'Fase PA'!B34+'Fase PDROB'!B34+'Fase PDRD'!B34+'Fase PDROP'!B34+'Fase V'!B34</f>
         <v>5</v>
       </c>
       <c r="C34" s="32">
-        <f>'Fase AD'!C34+'Fase PA'!C34+'Fase PDROB'!C34+'Fase PDRD'!C34+'Fase PDROP'!C34+'Fase V'!C34</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D34" s="32">
-        <f>'Fase AD'!D34+'Fase PA'!D34+'Fase PDROB'!D34+'Fase PDRD'!D34+'Fase PDROP'!D34+'Fase V'!D34</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E34" s="32">
-        <f>'Fase AD'!E34+'Fase PA'!E34+'Fase PDROB'!E34+'Fase PDRD'!E34+'Fase PDROP'!E34+'Fase V'!E34</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F34" s="32">
-        <f>'Fase AD'!F34+'Fase PA'!F34+'Fase PDROB'!F34+'Fase PDRD'!F34+'Fase PDROP'!F34+'Fase V'!F34</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G34" s="32">
-        <f>'Fase AD'!G34+'Fase PA'!G34+'Fase PDROB'!G34+'Fase PDRD'!G34+'Fase PDROP'!G34+'Fase V'!G34</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H34" s="33">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35102,32 +34767,26 @@
         <v>14</v>
       </c>
       <c r="B35" s="36">
-        <f>'Fase AD'!B35+'Fase PA'!B35+'Fase PDROB'!B35+'Fase PDRD'!B35+'Fase PDROP'!B35+'Fase V'!B35</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C35" s="36">
-        <f>'Fase AD'!C35+'Fase PA'!C35+'Fase PDROB'!C35+'Fase PDRD'!C35+'Fase PDROP'!C35+'Fase V'!C35</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D35" s="36">
-        <f>'Fase AD'!D35+'Fase PA'!D35+'Fase PDROB'!D35+'Fase PDRD'!D35+'Fase PDROP'!D35+'Fase V'!D35</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E35" s="36">
-        <f>'Fase AD'!E35+'Fase PA'!E35+'Fase PDROB'!E35+'Fase PDRD'!E35+'Fase PDROP'!E35+'Fase V'!E35</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F35" s="36">
-        <f>'Fase AD'!F35+'Fase PA'!F35+'Fase PDROB'!F35+'Fase PDRD'!F35+'Fase PDROP'!F35+'Fase V'!F35</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G35" s="36">
-        <f>'Fase AD'!G35+'Fase PA'!G35+'Fase PDROB'!G35+'Fase PDRD'!G35+'Fase PDROP'!G35+'Fase V'!G35</f>
-        <v>8</v>
-      </c>
-      <c r="H35" s="37">
+        <v>21</v>
+      </c>
+      <c r="H35" s="33">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35135,32 +34794,26 @@
         <v>15</v>
       </c>
       <c r="B36" s="32">
-        <f>'Fase AD'!B36+'Fase PA'!B36+'Fase PDROB'!B36+'Fase PDRD'!B36+'Fase PDROP'!B36+'Fase V'!B36</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C36" s="32">
-        <f>'Fase AD'!C36+'Fase PA'!C36+'Fase PDROB'!C36+'Fase PDRD'!C36+'Fase PDROP'!C36+'Fase V'!C36</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D36" s="32">
-        <f>'Fase AD'!D36+'Fase PA'!D36+'Fase PDROB'!D36+'Fase PDRD'!D36+'Fase PDROP'!D36+'Fase V'!D36</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E36" s="32">
-        <f>'Fase AD'!E36+'Fase PA'!E36+'Fase PDROB'!E36+'Fase PDRD'!E36+'Fase PDROP'!E36+'Fase V'!E36</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F36" s="32">
-        <f>'Fase AD'!F36+'Fase PA'!F36+'Fase PDROB'!F36+'Fase PDRD'!F36+'Fase PDROP'!F36+'Fase V'!F36</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G36" s="32">
-        <f>'Fase AD'!G36+'Fase PA'!G36+'Fase PDROB'!G36+'Fase PDRD'!G36+'Fase PDROP'!G36+'Fase V'!G36</f>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H36" s="33">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35168,32 +34821,26 @@
         <v>16</v>
       </c>
       <c r="B37" s="36">
-        <f>'Fase AD'!B37+'Fase PA'!B37+'Fase PDROB'!B37+'Fase PDRD'!B37+'Fase PDROP'!B37+'Fase V'!B37</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C37" s="36">
-        <f>'Fase AD'!C37+'Fase PA'!C37+'Fase PDROB'!C37+'Fase PDRD'!C37+'Fase PDROP'!C37+'Fase V'!C37</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D37" s="36">
-        <f>'Fase AD'!D37+'Fase PA'!D37+'Fase PDROB'!D37+'Fase PDRD'!D37+'Fase PDROP'!D37+'Fase V'!D37</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E37" s="36">
-        <f>'Fase AD'!E37+'Fase PA'!E37+'Fase PDROB'!E37+'Fase PDRD'!E37+'Fase PDROP'!E37+'Fase V'!E37</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F37" s="36">
-        <f>'Fase AD'!F37+'Fase PA'!F37+'Fase PDROB'!F37+'Fase PDRD'!F37+'Fase PDROP'!F37+'Fase V'!F37</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G37" s="36">
-        <f>'Fase AD'!G37+'Fase PA'!G37+'Fase PDROB'!G37+'Fase PDRD'!G37+'Fase PDROP'!G37+'Fase V'!G37</f>
-        <v>7</v>
-      </c>
-      <c r="H37" s="37">
+        <v>25</v>
+      </c>
+      <c r="H37" s="33">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35201,32 +34848,26 @@
         <v>17</v>
       </c>
       <c r="B38" s="32">
-        <f>'Fase AD'!B38+'Fase PA'!B38+'Fase PDROB'!B38+'Fase PDRD'!B38+'Fase PDROP'!B38+'Fase V'!B38</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C38" s="32">
-        <f>'Fase AD'!C38+'Fase PA'!C38+'Fase PDROB'!C38+'Fase PDRD'!C38+'Fase PDROP'!C38+'Fase V'!C38</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38" s="32">
-        <f>'Fase AD'!D38+'Fase PA'!D38+'Fase PDROB'!D38+'Fase PDRD'!D38+'Fase PDROP'!D38+'Fase V'!D38</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E38" s="32">
-        <f>'Fase AD'!E38+'Fase PA'!E38+'Fase PDROB'!E38+'Fase PDRD'!E38+'Fase PDROP'!E38+'Fase V'!E38</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F38" s="32">
-        <f>'Fase AD'!F38+'Fase PA'!F38+'Fase PDROB'!F38+'Fase PDRD'!F38+'Fase PDROP'!F38+'Fase V'!F38</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G38" s="32">
-        <f>'Fase AD'!G38+'Fase PA'!G38+'Fase PDROB'!G38+'Fase PDRD'!G38+'Fase PDROP'!G38+'Fase V'!G38</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f>SUM(B38:G38)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35234,35 +34875,66 @@
         <v>18</v>
       </c>
       <c r="B39" s="18">
-        <f t="shared" ref="B39:G39" si="3">B32+B33+B34+B36+B35+B37+B38</f>
-        <v>15</v>
+        <f>'Fase V'!B39+'Fase PDROP'!B39+'Fase PDRD'!B39+'Fase PDROB'!B39+'Fase PA'!B39+'Fase AD'!B39</f>
+        <v>50</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f>'Fase V'!C39+'Fase PDROP'!C39+'Fase PDRD'!C39+'Fase PDROB'!C39+'Fase PA'!C39+'Fase AD'!C39</f>
+        <v>72</v>
       </c>
       <c r="D39" s="18">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>'Fase V'!D39+'Fase PDROP'!D39+'Fase PDRD'!D39+'Fase PDROB'!D39+'Fase PA'!D39+'Fase AD'!D39</f>
+        <v>171</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="3"/>
-        <v>38</v>
+        <f>'Fase V'!E39+'Fase PDROP'!E39+'Fase PDRD'!E39+'Fase PDROB'!E39+'Fase PA'!E39+'Fase AD'!E39</f>
+        <v>131</v>
       </c>
       <c r="F39" s="18">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f>'Fase V'!F39+'Fase PDROP'!F39+'Fase PDRD'!F39+'Fase PDROB'!F39+'Fase PA'!F39+'Fase AD'!F39</f>
+        <v>136</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="3"/>
-        <v>68</v>
+        <f>'Fase V'!G39+'Fase PDROP'!G39+'Fase PDRD'!G39+'Fase PDROB'!G39+'Fase PA'!G39+'Fase AD'!G39</f>
+        <v>175</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
-        <v>214</v>
+        <f t="shared" ref="H32:H39" si="3">B39+C39+D39+E39+F39+G39</f>
+        <v>735</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <f>SUM(B32:B38)</f>
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <f>SUM(C32:C38)</f>
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:H40" si="4">SUM(D32:D38)</f>
+        <v>171</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="G40">
+        <f>SUM(G32:G38)</f>
+        <v>175</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>735</v>
+      </c>
       <c r="J40" s="26" t="s">
         <v>33</v>
       </c>
@@ -35294,210 +34966,210 @@
       <c r="A44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="10" t="e">
-        <f t="shared" ref="B44:B49" si="4">B18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C44" s="39" t="e">
+      <c r="B44" s="10">
+        <f t="shared" ref="B44:B49" si="5">B18</f>
+        <v>63</v>
+      </c>
+      <c r="C44" s="39">
         <f>B$39-B44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D44" s="39" t="e">
-        <f t="shared" ref="D44:D49" si="5">B44+C44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="23" t="e">
-        <f t="shared" ref="E44:E50" si="6">C18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F44" s="23" t="e">
+        <v>-13</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" ref="D44:D49" si="6">B44+C44</f>
+        <v>50</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" ref="E44:E50" si="7">C18</f>
+        <v>1890</v>
+      </c>
+      <c r="F44" s="23">
         <f>(C44*30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G44" s="23" t="e">
+        <v>-390</v>
+      </c>
+      <c r="G44" s="23">
         <f>(D44*30)</f>
-        <v>#REF!</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C45" s="45" t="e">
+      <c r="B45" s="14">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="C45" s="45">
         <f>C$39-B45</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="25" t="e">
+        <v>-11</v>
+      </c>
+      <c r="D45" s="45">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F45" s="25" t="e">
+        <v>72</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="7"/>
+        <v>1660</v>
+      </c>
+      <c r="F45" s="25">
         <f>(C45*20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G45" s="25" t="e">
+        <v>-220</v>
+      </c>
+      <c r="G45" s="25">
         <f>(D45*20)</f>
-        <v>#REF!</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="39" t="e">
+      <c r="B46" s="10">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="C46" s="39">
         <f>D$39-B46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="23" t="e">
+        <v>31</v>
+      </c>
+      <c r="D46" s="39">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F46" s="23" t="e">
+        <v>171</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" si="7"/>
+        <v>3080</v>
+      </c>
+      <c r="F46" s="23">
         <f>(C46*22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" s="23" t="e">
+        <v>682</v>
+      </c>
+      <c r="G46" s="23">
         <f>(D46*22)</f>
-        <v>#REF!</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C47" s="45" t="e">
+      <c r="B47" s="14">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="C47" s="45">
         <f>E$39-B47</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D47" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="25" t="e">
+        <v>-25</v>
+      </c>
+      <c r="D47" s="45">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F47" s="25" t="e">
+        <v>131</v>
+      </c>
+      <c r="E47" s="25">
+        <f t="shared" si="7"/>
+        <v>3900</v>
+      </c>
+      <c r="F47" s="25">
         <f>(C47*25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G47" s="25" t="e">
+        <v>-625</v>
+      </c>
+      <c r="G47" s="25">
         <f>(D47*25)</f>
-        <v>#REF!</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C48" s="39" t="e">
+      <c r="B48" s="10">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="C48" s="39">
         <f>F$39-B48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D48" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="23" t="e">
+        <v>42</v>
+      </c>
+      <c r="D48" s="39">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F48" s="23" t="e">
+        <v>136</v>
+      </c>
+      <c r="E48" s="23">
+        <f t="shared" si="7"/>
+        <v>1410</v>
+      </c>
+      <c r="F48" s="23">
         <f>(C48*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G48" s="23" t="e">
+        <v>630</v>
+      </c>
+      <c r="G48" s="23">
         <f>(D48*15)</f>
-        <v>#REF!</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C49" s="45" t="e">
+      <c r="B49" s="14">
+        <f t="shared" si="5"/>
+        <v>199</v>
+      </c>
+      <c r="C49" s="45">
         <f>G$39-B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D49" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" s="25" t="e">
+        <v>-24</v>
+      </c>
+      <c r="D49" s="45">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F49" s="25" t="e">
+        <v>175</v>
+      </c>
+      <c r="E49" s="25">
+        <f t="shared" si="7"/>
+        <v>2985</v>
+      </c>
+      <c r="F49" s="25">
         <f>(C49*15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G49" s="25" t="e">
+        <v>-360</v>
+      </c>
+      <c r="G49" s="25">
         <f>(D49*15)</f>
-        <v>#REF!</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="18" t="e">
+      <c r="B50" s="18">
         <f>B44+B45+B46+B47+B48+B49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C50" s="40" t="e">
+        <v>735</v>
+      </c>
+      <c r="C50" s="40">
         <f>H39-B50</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="40" t="e">
+        <v>0</v>
+      </c>
+      <c r="D50" s="40">
         <f>SUM(D44:D49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" s="41" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F50" s="28" t="e">
+        <v>735</v>
+      </c>
+      <c r="E50" s="41">
+        <f t="shared" si="7"/>
+        <v>14925</v>
+      </c>
+      <c r="F50" s="28">
         <f>SUM(F44:F49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G50" s="28" t="e">
+        <v>-283</v>
+      </c>
+      <c r="G50" s="28">
         <f>SUM(G44:G49)</f>
-        <v>#REF!</v>
+        <v>14642</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>